--- a/1 Расчёт подбора насоса для скважин ПЕРВЫЙ.xlsx
+++ b/1 Расчёт подбора насоса для скважин ПЕРВЫЙ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="374">
   <si>
     <t xml:space="preserve">Наименова- </t>
   </si>
@@ -547,12 +547,6 @@
   </si>
   <si>
     <t>Данные введены корректно</t>
-  </si>
-  <si>
-    <t>Абсолютная высота оголовка скважины от уровня земли</t>
-  </si>
-  <si>
-    <t>Минимальная скорость обтекания (охлаждения водой) электродвигателя:</t>
   </si>
   <si>
     <t>Номинальные эксплуатационные показатели скважин</t>
@@ -1157,13 +1151,7 @@
     <t>Дебит скважины по пасспорту</t>
   </si>
   <si>
-    <t>Максимально допустимая длинна загрузки  водоподъёмных труб для данной скважины</t>
-  </si>
-  <si>
     <t>Введите число больше "-3"</t>
-  </si>
-  <si>
-    <t>Длинна труб  (загрузки) насосного агрегата</t>
   </si>
 </sst>
 </file>
@@ -2997,9 +2985,72 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3045,9 +3096,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3057,66 +3105,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,9 +3173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -3504,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3533,942 +3521,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="362"/>
-      <c r="B1" s="362"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="362"/>
-      <c r="E1" s="362"/>
-      <c r="F1" s="362"/>
-      <c r="G1" s="362"/>
-      <c r="H1" s="362"/>
+      <c r="A1" s="327"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="327" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="329"/>
+      <c r="A3" s="348"/>
+      <c r="B3" s="349"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="350"/>
     </row>
     <row r="4" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="336" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="338"/>
-      <c r="F4" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>136</v>
-      </c>
+      <c r="A4" s="357"/>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="359"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="333" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="335"/>
+      <c r="A5" s="354"/>
+      <c r="B5" s="355"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="356"/>
     </row>
     <row r="6" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="346" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="347"/>
-      <c r="C6" s="347"/>
-      <c r="D6" s="347"/>
-      <c r="E6" s="348"/>
-      <c r="F6" s="46">
-        <v>120</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H6" s="324" t="str">
-        <f>IF(F6&lt;=0,Лист2!J6,IF(F6&gt;F7,Лист2!L6,Лист2!K6))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A6" s="328"/>
+      <c r="B6" s="329"/>
+      <c r="C6" s="329"/>
+      <c r="D6" s="329"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="324"/>
     </row>
     <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="346" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="347"/>
-      <c r="C7" s="347"/>
-      <c r="D7" s="347"/>
-      <c r="E7" s="348"/>
-      <c r="F7" s="46">
-        <v>145</v>
-      </c>
-      <c r="G7" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="H7" s="324" t="str">
-        <f>IF(F7&lt;=0,Лист2!J7,IF(F7&gt;400,Лист2!L7,Лист2!K7))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A7" s="328"/>
+      <c r="B7" s="329"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="324"/>
     </row>
     <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="349" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="349"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="349"/>
-      <c r="E8" s="349"/>
-      <c r="F8" s="46">
-        <v>30</v>
-      </c>
-      <c r="G8" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" s="324" t="str">
-        <f>IF(F8&lt;=0,Лист2!J8,IF(F8&gt;F9,Лист2!L8,Лист2!K8))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A8" s="366"/>
+      <c r="B8" s="366"/>
+      <c r="C8" s="366"/>
+      <c r="D8" s="366"/>
+      <c r="E8" s="366"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="324"/>
     </row>
     <row r="9" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="349" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="349"/>
-      <c r="C9" s="349"/>
-      <c r="D9" s="349"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="46">
-        <v>45</v>
-      </c>
-      <c r="G9" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="H9" s="324" t="str">
-        <f>IF(F9&lt;=0,Лист2!J9,IF(F9&lt;F8,Лист2!L9,Лист2!K9))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A9" s="366"/>
+      <c r="B9" s="366"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="324"/>
     </row>
     <row r="10" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="330" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="331"/>
-      <c r="C10" s="331"/>
-      <c r="D10" s="331"/>
-      <c r="E10" s="331"/>
-      <c r="F10" s="331"/>
-      <c r="G10" s="331"/>
-      <c r="H10" s="332"/>
+      <c r="A10" s="351"/>
+      <c r="B10" s="352"/>
+      <c r="C10" s="352"/>
+      <c r="D10" s="352"/>
+      <c r="E10" s="352"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="352"/>
+      <c r="H10" s="353"/>
     </row>
     <row r="11" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="342" t="s">
-        <v>377</v>
-      </c>
-      <c r="B11" s="342"/>
-      <c r="C11" s="342"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="45">
-        <v>46</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="325" t="str">
-        <f>IF(F11&lt;=0,Лист2!J11,IF(F11&gt;F12+F13,Лист2!L11,Лист2!K11))</f>
-        <v>Длина труб должна быть &lt; = 44 м</v>
-      </c>
+      <c r="A11" s="347"/>
+      <c r="B11" s="347"/>
+      <c r="C11" s="347"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="325"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="342" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="342"/>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="45">
-        <v>46</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="325" t="str">
-        <f>IF(F12&lt;=0,Лист2!J12,IF(F12&gt;216,Лист2!L13,Лист2!K12))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A12" s="347"/>
+      <c r="B12" s="347"/>
+      <c r="C12" s="347"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="325"/>
     </row>
     <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="343" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="344"/>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="345"/>
-      <c r="F13" s="45">
-        <v>-2</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H13" s="325" t="str">
-        <f>IF(F13&lt;-3,Лист2!J13,IF(F13&gt;7,Лист2!L13,Лист2!K13))</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A13" s="363"/>
+      <c r="B13" s="364"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="365"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="325"/>
     </row>
     <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="342" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="342"/>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="45">
-        <v>150</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="325" t="str">
-        <f>IF(F14&lt;=0,Лист2!J14,Лист2!K14)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A14" s="347"/>
+      <c r="B14" s="347"/>
+      <c r="C14" s="347"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="325"/>
     </row>
     <row r="15" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="342" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="342"/>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="45">
-        <v>3</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="H15" s="325" t="str">
-        <f>IF(F15&lt;=0,Лист2!J15,Лист2!K15)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A15" s="347"/>
+      <c r="B15" s="347"/>
+      <c r="C15" s="347"/>
+      <c r="D15" s="347"/>
+      <c r="E15" s="347"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="325"/>
     </row>
     <row r="16" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="343" t="s">
-        <v>163</v>
-      </c>
-      <c r="B16" s="344"/>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="345"/>
-      <c r="F16" s="45">
-        <v>3</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="325" t="str">
-        <f>IF(F16&lt;=0,Лист2!J16,Лист2!K16)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A16" s="363"/>
+      <c r="B16" s="364"/>
+      <c r="C16" s="364"/>
+      <c r="D16" s="364"/>
+      <c r="E16" s="365"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="325"/>
     </row>
     <row r="17" spans="1:10" s="41" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="343" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="345"/>
-      <c r="F17" s="45">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="325" t="str">
-        <f>IF(F17&lt;=0,Лист2!J17,Лист2!K17)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A17" s="363"/>
+      <c r="B17" s="364"/>
+      <c r="C17" s="364"/>
+      <c r="D17" s="364"/>
+      <c r="E17" s="365"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="325"/>
       <c r="I17" s="42"/>
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="339" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="340"/>
-      <c r="C18" s="340"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340"/>
-      <c r="H18" s="341"/>
+      <c r="A18" s="360"/>
+      <c r="B18" s="361"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="361"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="361"/>
+      <c r="H18" s="362"/>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="358" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="358"/>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="47">
-        <v>377</v>
-      </c>
-      <c r="G19" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="388" t="str">
-        <f>IF(F19&lt;=0,Лист2!J19,Лист2!K19)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A19" s="335"/>
+      <c r="B19" s="335"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="326"/>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="358" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="358"/>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="47">
-        <v>100</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="388" t="str">
-        <f>IF(F20&lt;=0,Лист2!J20,Лист2!K20)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A20" s="335"/>
+      <c r="B20" s="335"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="335"/>
+      <c r="E20" s="335"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="326"/>
     </row>
     <row r="21" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="358" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="358"/>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="47">
-        <v>0.1</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="H21" s="388" t="str">
-        <f>IF(F21&lt;=0,Лист2!J21,Лист2!K21)</f>
-        <v>Данные введены корректно</v>
-      </c>
+      <c r="A21" s="335"/>
+      <c r="B21" s="335"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="335"/>
+      <c r="E21" s="335"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="326"/>
     </row>
     <row r="22" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="359" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="360"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
-      <c r="F22" s="360"/>
-      <c r="G22" s="360"/>
-      <c r="H22" s="361"/>
+      <c r="A22" s="339"/>
+      <c r="B22" s="340"/>
+      <c r="C22" s="340"/>
+      <c r="D22" s="340"/>
+      <c r="E22" s="340"/>
+      <c r="F22" s="340"/>
+      <c r="G22" s="340"/>
+      <c r="H22" s="341"/>
     </row>
     <row r="23" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="326" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="326"/>
-      <c r="C23" s="326"/>
-      <c r="D23" s="326"/>
-      <c r="E23" s="326"/>
-      <c r="F23" s="49">
-        <v>4</v>
-      </c>
-      <c r="G23" s="49" t="s">
-        <v>135</v>
-      </c>
+      <c r="A23" s="334"/>
+      <c r="B23" s="334"/>
+      <c r="C23" s="334"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="334"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="326" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="326"/>
-      <c r="C24" s="326"/>
-      <c r="D24" s="326"/>
-      <c r="E24" s="326"/>
-      <c r="F24" s="49">
-        <v>0.75</v>
-      </c>
+      <c r="A24" s="334"/>
+      <c r="B24" s="334"/>
+      <c r="C24" s="334"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="334"/>
+      <c r="F24" s="49"/>
       <c r="G24" s="49"/>
       <c r="H24" s="49"/>
     </row>
     <row r="25" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="326" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="326"/>
-      <c r="C25" s="326"/>
-      <c r="D25" s="326"/>
-      <c r="E25" s="326"/>
-      <c r="F25" s="49">
-        <v>1.05</v>
-      </c>
+      <c r="A25" s="334"/>
+      <c r="B25" s="334"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="334"/>
+      <c r="F25" s="49"/>
       <c r="G25" s="49"/>
       <c r="H25" s="49"/>
     </row>
     <row r="26" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="326" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="326"/>
-      <c r="C26" s="326"/>
-      <c r="D26" s="326"/>
-      <c r="E26" s="326"/>
-      <c r="F26" s="49">
-        <v>9.81</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>132</v>
-      </c>
+      <c r="A26" s="334"/>
+      <c r="B26" s="334"/>
+      <c r="C26" s="334"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="334"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
       <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="326" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="326"/>
-      <c r="C27" s="326"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="326"/>
-      <c r="F27" s="49">
-        <v>0</v>
-      </c>
-      <c r="G27" s="49" t="s">
-        <v>135</v>
-      </c>
+      <c r="A27" s="334"/>
+      <c r="B27" s="334"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="334"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
       <c r="H27" s="49"/>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="326" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="326"/>
-      <c r="C28" s="326"/>
-      <c r="D28" s="326"/>
-      <c r="E28" s="326"/>
-      <c r="F28" s="49">
-        <v>30</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>135</v>
-      </c>
+      <c r="A28" s="334"/>
+      <c r="B28" s="334"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="334"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
       <c r="H28" s="49"/>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="326" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="326"/>
-      <c r="C29" s="326"/>
-      <c r="D29" s="326"/>
-      <c r="E29" s="326"/>
-      <c r="F29" s="49">
-        <v>0.1</v>
-      </c>
-      <c r="G29" s="49" t="s">
-        <v>132</v>
-      </c>
+      <c r="A29" s="334"/>
+      <c r="B29" s="334"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="334"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
       <c r="H29" s="49"/>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="355" t="s">
-        <v>153</v>
-      </c>
-      <c r="B30" s="356"/>
-      <c r="C30" s="356"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="357"/>
-      <c r="F30" s="49">
-        <v>1.5E-6</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>154</v>
-      </c>
+      <c r="A30" s="336"/>
+      <c r="B30" s="337"/>
+      <c r="C30" s="337"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
       <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="355" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="356"/>
-      <c r="C31" s="356"/>
-      <c r="D31" s="356"/>
-      <c r="E31" s="357"/>
-      <c r="F31" s="49">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G31" s="49" t="s">
-        <v>146</v>
-      </c>
+      <c r="A31" s="336"/>
+      <c r="B31" s="337"/>
+      <c r="C31" s="337"/>
+      <c r="D31" s="337"/>
+      <c r="E31" s="338"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
       <c r="H31" s="49"/>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="355" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="356"/>
-      <c r="C32" s="356"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="357"/>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>146</v>
-      </c>
+      <c r="A32" s="336"/>
+      <c r="B32" s="337"/>
+      <c r="C32" s="337"/>
+      <c r="D32" s="337"/>
+      <c r="E32" s="338"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
       <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="355" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" s="356"/>
-      <c r="C33" s="356"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="357"/>
-      <c r="F33" s="55">
-        <f>0.3164/(F34^0.25)</f>
-        <v>1.5180281748820629E-2</v>
-      </c>
+      <c r="A33" s="336"/>
+      <c r="B33" s="337"/>
+      <c r="C33" s="337"/>
+      <c r="D33" s="337"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
     </row>
     <row r="34" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="355" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="356"/>
-      <c r="C34" s="356"/>
-      <c r="D34" s="356"/>
-      <c r="E34" s="357"/>
-      <c r="F34" s="54">
-        <f>(F43*F14/1000)/F30</f>
-        <v>188723.75560273649</v>
-      </c>
+      <c r="A34" s="336"/>
+      <c r="B34" s="337"/>
+      <c r="C34" s="337"/>
+      <c r="D34" s="337"/>
+      <c r="E34" s="338"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="49"/>
       <c r="H34" s="49"/>
     </row>
     <row r="35" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="326" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="326"/>
-      <c r="C35" s="326"/>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
-      <c r="F35" s="56">
-        <f>(F33*F11*F43^2)/(F14/1000*2*F26)</f>
-        <v>0.84508529084948603</v>
-      </c>
-      <c r="G35" s="49" t="s">
-        <v>117</v>
-      </c>
+      <c r="A35" s="334"/>
+      <c r="B35" s="334"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="49"/>
     </row>
     <row r="36" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="326" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="326"/>
-      <c r="C36" s="326"/>
-      <c r="D36" s="326"/>
-      <c r="E36" s="326"/>
-      <c r="F36" s="56">
-        <f>(0.05+0.2*(F14/(F14*0.666)))/5</f>
-        <v>7.0060060060060061E-2</v>
-      </c>
+      <c r="A36" s="334"/>
+      <c r="B36" s="334"/>
+      <c r="C36" s="334"/>
+      <c r="D36" s="334"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="49"/>
       <c r="H36" s="49"/>
     </row>
     <row r="37" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="326" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="326"/>
-      <c r="C37" s="326"/>
-      <c r="D37" s="326"/>
-      <c r="E37" s="326"/>
-      <c r="F37" s="56">
-        <f>F16*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="G37" s="49" t="s">
-        <v>117</v>
-      </c>
+      <c r="A37" s="334"/>
+      <c r="B37" s="334"/>
+      <c r="C37" s="334"/>
+      <c r="D37" s="334"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="49"/>
       <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="326" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38" s="326"/>
-      <c r="C38" s="326"/>
-      <c r="D38" s="326"/>
-      <c r="E38" s="326"/>
-      <c r="F38" s="49">
-        <v>2</v>
-      </c>
-      <c r="G38" s="49" t="s">
-        <v>130</v>
-      </c>
+      <c r="A38" s="334"/>
+      <c r="B38" s="334"/>
+      <c r="C38" s="334"/>
+      <c r="D38" s="334"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="49"/>
     </row>
     <row r="39" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="352" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" s="353"/>
-      <c r="C39" s="353"/>
-      <c r="D39" s="353"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="353"/>
-      <c r="G39" s="353"/>
-      <c r="H39" s="354"/>
+      <c r="A39" s="343"/>
+      <c r="B39" s="344"/>
+      <c r="C39" s="344"/>
+      <c r="D39" s="344"/>
+      <c r="E39" s="344"/>
+      <c r="F39" s="344"/>
+      <c r="G39" s="344"/>
+      <c r="H39" s="345"/>
     </row>
     <row r="40" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="351" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="351"/>
-      <c r="C40" s="351"/>
-      <c r="D40" s="351"/>
-      <c r="E40" s="351"/>
-      <c r="F40" s="50">
-        <f>((F6/(F9-F8))*(F44-F8))*F24</f>
-        <v>72</v>
-      </c>
-      <c r="G40" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="50" t="str">
-        <f>IF(F40&lt;=0,Лист2!J40,Лист2!K40)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A40" s="342"/>
+      <c r="B40" s="342"/>
+      <c r="C40" s="342"/>
+      <c r="D40" s="342"/>
+      <c r="E40" s="342"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="351" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="351"/>
-      <c r="C41" s="351"/>
-      <c r="D41" s="351"/>
-      <c r="E41" s="351"/>
-      <c r="F41" s="51">
-        <f>(F11+F37+(F17*10)+F35+F15)*F25</f>
-        <v>68.717339555391973</v>
-      </c>
-      <c r="G41" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H41" s="50" t="str">
-        <f>IF(F41&lt;=0,Лист2!J41,Лист2!K41)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A41" s="342"/>
+      <c r="B41" s="342"/>
+      <c r="C41" s="342"/>
+      <c r="D41" s="342"/>
+      <c r="E41" s="342"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="351" t="s">
-        <v>142</v>
-      </c>
-      <c r="B42" s="351"/>
-      <c r="C42" s="351"/>
-      <c r="D42" s="351"/>
-      <c r="E42" s="351"/>
-      <c r="F42" s="52">
-        <f>F6/(3600*(3.14*((((F19)/1000)/2)^2)-3.14*((((F20)/1000)/2)^2)))</f>
-        <v>0.32137414958575111</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H42" s="50" t="str">
-        <f>IF(F42&lt;=0.1,Лист2!J42,Лист2!K42)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A42" s="342"/>
+      <c r="B42" s="342"/>
+      <c r="C42" s="342"/>
+      <c r="D42" s="342"/>
+      <c r="E42" s="342"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
     </row>
     <row r="43" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="351" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="351"/>
-      <c r="C43" s="351"/>
-      <c r="D43" s="351"/>
-      <c r="E43" s="351"/>
-      <c r="F43" s="52">
-        <f>F6/(3600*3.14*(((F14/1000)/2)^2))</f>
-        <v>1.8872375560273649</v>
-      </c>
-      <c r="G43" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="H43" s="50" t="str">
-        <f>IF(F43&lt;=0,Лист2!J43,Лист2!K43)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A43" s="342"/>
+      <c r="B43" s="342"/>
+      <c r="C43" s="342"/>
+      <c r="D43" s="342"/>
+      <c r="E43" s="342"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
     </row>
     <row r="44" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="351" t="s">
-        <v>375</v>
-      </c>
-      <c r="B44" s="351"/>
-      <c r="C44" s="351"/>
-      <c r="D44" s="351"/>
-      <c r="E44" s="351"/>
-      <c r="F44" s="52">
-        <f>F12-F38+F13</f>
-        <v>42</v>
-      </c>
-      <c r="G44" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="H44" s="50" t="str">
-        <f>IF(F44&lt;=0,Лист2!J44,Лист2!K44)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A44" s="342"/>
+      <c r="B44" s="342"/>
+      <c r="C44" s="342"/>
+      <c r="D44" s="342"/>
+      <c r="E44" s="342"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
     </row>
     <row r="45" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="351" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="351"/>
-      <c r="C45" s="351"/>
-      <c r="D45" s="351"/>
-      <c r="E45" s="351"/>
-      <c r="F45" s="52">
-        <f>F23</f>
-        <v>4</v>
-      </c>
-      <c r="G45" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="50" t="str">
-        <f>IF(F45&lt;=0,Лист2!J45,Лист2!K45)</f>
-        <v>НОРМА</v>
-      </c>
+      <c r="A45" s="342"/>
+      <c r="B45" s="342"/>
+      <c r="C45" s="342"/>
+      <c r="D45" s="342"/>
+      <c r="E45" s="342"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="350"/>
-      <c r="B46" s="350"/>
-      <c r="C46" s="350"/>
-      <c r="D46" s="350"/>
-      <c r="E46" s="350"/>
+      <c r="A46" s="346"/>
+      <c r="B46" s="346"/>
+      <c r="C46" s="346"/>
+      <c r="D46" s="346"/>
+      <c r="E46" s="346"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
     </row>
     <row r="47" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="350"/>
-      <c r="B47" s="350"/>
-      <c r="C47" s="350"/>
-      <c r="D47" s="350"/>
-      <c r="E47" s="350"/>
+      <c r="A47" s="346"/>
+      <c r="B47" s="346"/>
+      <c r="C47" s="346"/>
+      <c r="D47" s="346"/>
+      <c r="E47" s="346"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="350"/>
-      <c r="B48" s="350"/>
-      <c r="C48" s="350"/>
-      <c r="D48" s="350"/>
-      <c r="E48" s="350"/>
+      <c r="A48" s="346"/>
+      <c r="B48" s="346"/>
+      <c r="C48" s="346"/>
+      <c r="D48" s="346"/>
+      <c r="E48" s="346"/>
       <c r="F48" s="44"/>
       <c r="G48" s="44"/>
     </row>
     <row r="49" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="350"/>
-      <c r="B49" s="350"/>
-      <c r="C49" s="350"/>
-      <c r="D49" s="350"/>
-      <c r="E49" s="350"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="346"/>
+      <c r="C49" s="346"/>
+      <c r="D49" s="346"/>
+      <c r="E49" s="346"/>
       <c r="F49" s="44"/>
       <c r="G49" s="44"/>
     </row>
     <row r="50" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="350"/>
-      <c r="B50" s="350"/>
-      <c r="C50" s="350"/>
-      <c r="D50" s="350"/>
-      <c r="E50" s="350"/>
+      <c r="A50" s="346"/>
+      <c r="B50" s="346"/>
+      <c r="C50" s="346"/>
+      <c r="D50" s="346"/>
+      <c r="E50" s="346"/>
       <c r="F50" s="44"/>
       <c r="G50" s="44"/>
     </row>
     <row r="51" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="350"/>
-      <c r="B51" s="350"/>
-      <c r="C51" s="350"/>
-      <c r="D51" s="350"/>
-      <c r="E51" s="350"/>
+      <c r="A51" s="346"/>
+      <c r="B51" s="346"/>
+      <c r="C51" s="346"/>
+      <c r="D51" s="346"/>
+      <c r="E51" s="346"/>
       <c r="F51" s="44"/>
       <c r="G51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="350"/>
-      <c r="B52" s="350"/>
-      <c r="C52" s="350"/>
-      <c r="D52" s="350"/>
-      <c r="E52" s="350"/>
+      <c r="A52" s="346"/>
+      <c r="B52" s="346"/>
+      <c r="C52" s="346"/>
+      <c r="D52" s="346"/>
+      <c r="E52" s="346"/>
       <c r="F52" s="44"/>
       <c r="G52" s="44"/>
     </row>
     <row r="53" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="350"/>
-      <c r="B53" s="350"/>
-      <c r="C53" s="350"/>
-      <c r="D53" s="350"/>
-      <c r="E53" s="350"/>
+      <c r="A53" s="346"/>
+      <c r="B53" s="346"/>
+      <c r="C53" s="346"/>
+      <c r="D53" s="346"/>
+      <c r="E53" s="346"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
     </row>
     <row r="54" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="350"/>
-      <c r="B54" s="350"/>
-      <c r="C54" s="350"/>
-      <c r="D54" s="350"/>
-      <c r="E54" s="350"/>
+      <c r="A54" s="346"/>
+      <c r="B54" s="346"/>
+      <c r="C54" s="346"/>
+      <c r="D54" s="346"/>
+      <c r="E54" s="346"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
     </row>
     <row r="55" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="350"/>
-      <c r="B55" s="350"/>
-      <c r="C55" s="350"/>
-      <c r="D55" s="350"/>
-      <c r="E55" s="350"/>
+      <c r="A55" s="346"/>
+      <c r="B55" s="346"/>
+      <c r="C55" s="346"/>
+      <c r="D55" s="346"/>
+      <c r="E55" s="346"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
     </row>
     <row r="56" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="350"/>
-      <c r="B56" s="350"/>
-      <c r="C56" s="350"/>
-      <c r="D56" s="350"/>
-      <c r="E56" s="350"/>
+      <c r="A56" s="346"/>
+      <c r="B56" s="346"/>
+      <c r="C56" s="346"/>
+      <c r="D56" s="346"/>
+      <c r="E56" s="346"/>
       <c r="F56" s="44"/>
       <c r="G56" s="44"/>
     </row>
     <row r="57" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="350"/>
-      <c r="B57" s="350"/>
-      <c r="C57" s="350"/>
-      <c r="D57" s="350"/>
-      <c r="E57" s="350"/>
+      <c r="A57" s="346"/>
+      <c r="B57" s="346"/>
+      <c r="C57" s="346"/>
+      <c r="D57" s="346"/>
+      <c r="E57" s="346"/>
       <c r="F57" s="44"/>
       <c r="G57" s="44"/>
     </row>
     <row r="58" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="350"/>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
-      <c r="D58" s="350"/>
-      <c r="E58" s="350"/>
+      <c r="A58" s="346"/>
+      <c r="B58" s="346"/>
+      <c r="C58" s="346"/>
+      <c r="D58" s="346"/>
+      <c r="E58" s="346"/>
       <c r="F58" s="44"/>
       <c r="G58" s="44"/>
     </row>
     <row r="59" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="350"/>
-      <c r="B59" s="350"/>
-      <c r="C59" s="350"/>
-      <c r="D59" s="350"/>
-      <c r="E59" s="350"/>
+      <c r="A59" s="346"/>
+      <c r="B59" s="346"/>
+      <c r="C59" s="346"/>
+      <c r="D59" s="346"/>
+      <c r="E59" s="346"/>
       <c r="F59" s="44"/>
       <c r="G59" s="44"/>
     </row>
     <row r="60" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="350"/>
-      <c r="B60" s="350"/>
-      <c r="C60" s="350"/>
-      <c r="D60" s="350"/>
-      <c r="E60" s="350"/>
+      <c r="A60" s="346"/>
+      <c r="B60" s="346"/>
+      <c r="C60" s="346"/>
+      <c r="D60" s="346"/>
+      <c r="E60" s="346"/>
       <c r="F60" s="44"/>
       <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="350"/>
-      <c r="B61" s="350"/>
-      <c r="C61" s="350"/>
-      <c r="D61" s="350"/>
-      <c r="E61" s="350"/>
+      <c r="A61" s="346"/>
+      <c r="B61" s="346"/>
+      <c r="C61" s="346"/>
+      <c r="D61" s="346"/>
+      <c r="E61" s="346"/>
       <c r="F61" s="44"/>
       <c r="G61" s="44"/>
     </row>
     <row r="62" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="350"/>
-      <c r="B62" s="350"/>
-      <c r="C62" s="350"/>
-      <c r="D62" s="350"/>
-      <c r="E62" s="350"/>
+      <c r="A62" s="346"/>
+      <c r="B62" s="346"/>
+      <c r="C62" s="346"/>
+      <c r="D62" s="346"/>
+      <c r="E62" s="346"/>
       <c r="F62" s="44"/>
       <c r="G62" s="44"/>
     </row>
     <row r="63" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="350"/>
-      <c r="B63" s="350"/>
-      <c r="C63" s="350"/>
-      <c r="D63" s="350"/>
-      <c r="E63" s="350"/>
+      <c r="A63" s="346"/>
+      <c r="B63" s="346"/>
+      <c r="C63" s="346"/>
+      <c r="D63" s="346"/>
+      <c r="E63" s="346"/>
       <c r="F63" s="44"/>
       <c r="G63" s="44"/>
     </row>
     <row r="64" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="350"/>
-      <c r="B64" s="350"/>
-      <c r="C64" s="350"/>
-      <c r="D64" s="350"/>
-      <c r="E64" s="350"/>
+      <c r="A64" s="346"/>
+      <c r="B64" s="346"/>
+      <c r="C64" s="346"/>
+      <c r="D64" s="346"/>
+      <c r="E64" s="346"/>
       <c r="F64" s="44"/>
       <c r="G64" s="44"/>
     </row>
     <row r="65" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="350"/>
-      <c r="B65" s="350"/>
-      <c r="C65" s="350"/>
-      <c r="D65" s="350"/>
-      <c r="E65" s="350"/>
+      <c r="A65" s="346"/>
+      <c r="B65" s="346"/>
+      <c r="C65" s="346"/>
+      <c r="D65" s="346"/>
+      <c r="E65" s="346"/>
       <c r="F65" s="44"/>
       <c r="G65" s="44"/>
     </row>
     <row r="66" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="350"/>
-      <c r="B66" s="350"/>
-      <c r="C66" s="350"/>
-      <c r="D66" s="350"/>
-      <c r="E66" s="350"/>
+      <c r="A66" s="346"/>
+      <c r="B66" s="346"/>
+      <c r="C66" s="346"/>
+      <c r="D66" s="346"/>
+      <c r="E66" s="346"/>
       <c r="F66" s="44"/>
       <c r="G66" s="44"/>
     </row>
     <row r="67" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="350"/>
-      <c r="B67" s="350"/>
-      <c r="C67" s="350"/>
-      <c r="D67" s="350"/>
-      <c r="E67" s="350"/>
+      <c r="A67" s="346"/>
+      <c r="B67" s="346"/>
+      <c r="C67" s="346"/>
+      <c r="D67" s="346"/>
+      <c r="E67" s="346"/>
       <c r="F67" s="44"/>
       <c r="G67" s="44"/>
       <c r="K67" s="9"/>
@@ -4490,74 +4181,74 @@
       <c r="AA67" s="9"/>
     </row>
     <row r="68" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="350"/>
-      <c r="B68" s="350"/>
-      <c r="C68" s="350"/>
-      <c r="D68" s="350"/>
-      <c r="E68" s="350"/>
+      <c r="A68" s="346"/>
+      <c r="B68" s="346"/>
+      <c r="C68" s="346"/>
+      <c r="D68" s="346"/>
+      <c r="E68" s="346"/>
       <c r="F68" s="44"/>
       <c r="G68" s="44"/>
     </row>
     <row r="69" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="350"/>
-      <c r="B69" s="350"/>
-      <c r="C69" s="350"/>
-      <c r="D69" s="350"/>
-      <c r="E69" s="350"/>
+      <c r="A69" s="346"/>
+      <c r="B69" s="346"/>
+      <c r="C69" s="346"/>
+      <c r="D69" s="346"/>
+      <c r="E69" s="346"/>
       <c r="F69" s="44"/>
       <c r="G69" s="44"/>
     </row>
     <row r="70" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="350"/>
-      <c r="B70" s="350"/>
-      <c r="C70" s="350"/>
-      <c r="D70" s="350"/>
-      <c r="E70" s="350"/>
+      <c r="A70" s="346"/>
+      <c r="B70" s="346"/>
+      <c r="C70" s="346"/>
+      <c r="D70" s="346"/>
+      <c r="E70" s="346"/>
       <c r="F70" s="44"/>
       <c r="G70" s="44"/>
     </row>
     <row r="71" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="350"/>
-      <c r="B71" s="350"/>
-      <c r="C71" s="350"/>
-      <c r="D71" s="350"/>
-      <c r="E71" s="350"/>
+      <c r="A71" s="346"/>
+      <c r="B71" s="346"/>
+      <c r="C71" s="346"/>
+      <c r="D71" s="346"/>
+      <c r="E71" s="346"/>
       <c r="F71" s="44"/>
       <c r="G71" s="44"/>
     </row>
     <row r="72" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="350"/>
-      <c r="B72" s="350"/>
-      <c r="C72" s="350"/>
-      <c r="D72" s="350"/>
-      <c r="E72" s="350"/>
+      <c r="A72" s="346"/>
+      <c r="B72" s="346"/>
+      <c r="C72" s="346"/>
+      <c r="D72" s="346"/>
+      <c r="E72" s="346"/>
       <c r="F72" s="44"/>
       <c r="G72" s="44"/>
     </row>
     <row r="73" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="350"/>
-      <c r="B73" s="350"/>
-      <c r="C73" s="350"/>
-      <c r="D73" s="350"/>
-      <c r="E73" s="350"/>
+      <c r="A73" s="346"/>
+      <c r="B73" s="346"/>
+      <c r="C73" s="346"/>
+      <c r="D73" s="346"/>
+      <c r="E73" s="346"/>
       <c r="F73" s="44"/>
       <c r="G73" s="44"/>
     </row>
     <row r="74" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="350"/>
-      <c r="B74" s="350"/>
-      <c r="C74" s="350"/>
-      <c r="D74" s="350"/>
-      <c r="E74" s="350"/>
+      <c r="A74" s="346"/>
+      <c r="B74" s="346"/>
+      <c r="C74" s="346"/>
+      <c r="D74" s="346"/>
+      <c r="E74" s="346"/>
       <c r="F74" s="44"/>
       <c r="G74" s="44"/>
     </row>
     <row r="75" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="350"/>
-      <c r="B75" s="350"/>
-      <c r="C75" s="350"/>
-      <c r="D75" s="350"/>
-      <c r="E75" s="350"/>
+      <c r="A75" s="346"/>
+      <c r="B75" s="346"/>
+      <c r="C75" s="346"/>
+      <c r="D75" s="346"/>
+      <c r="E75" s="346"/>
       <c r="F75" s="44"/>
       <c r="G75" s="44"/>
     </row>
@@ -4759,35 +4450,35 @@
     </row>
     <row r="133" spans="1:64" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="9"/>
-      <c r="AH133" s="363"/>
-      <c r="AI133" s="363"/>
-      <c r="AJ133" s="363"/>
-      <c r="AK133" s="363"/>
-      <c r="AL133" s="363"/>
-      <c r="AM133" s="363"/>
-      <c r="AN133" s="363"/>
-      <c r="AO133" s="363"/>
-      <c r="AP133" s="363"/>
-      <c r="AQ133" s="363"/>
-      <c r="AR133" s="363"/>
-      <c r="AS133" s="363"/>
-      <c r="AT133" s="363"/>
-      <c r="AU133" s="363"/>
-      <c r="AV133" s="363"/>
-      <c r="AW133" s="363"/>
-      <c r="AX133" s="363"/>
-      <c r="AY133" s="363"/>
+      <c r="AH133" s="331"/>
+      <c r="AI133" s="331"/>
+      <c r="AJ133" s="331"/>
+      <c r="AK133" s="331"/>
+      <c r="AL133" s="331"/>
+      <c r="AM133" s="331"/>
+      <c r="AN133" s="331"/>
+      <c r="AO133" s="331"/>
+      <c r="AP133" s="331"/>
+      <c r="AQ133" s="331"/>
+      <c r="AR133" s="331"/>
+      <c r="AS133" s="331"/>
+      <c r="AT133" s="331"/>
+      <c r="AU133" s="331"/>
+      <c r="AV133" s="331"/>
+      <c r="AW133" s="331"/>
+      <c r="AX133" s="331"/>
+      <c r="AY133" s="331"/>
       <c r="AZ133" s="31"/>
       <c r="BD133" s="12"/>
-      <c r="BE133" s="363" t="s">
+      <c r="BE133" s="331" t="s">
         <v>73</v>
       </c>
-      <c r="BF133" s="363"/>
-      <c r="BG133" s="363"/>
-      <c r="BH133" s="363"/>
-      <c r="BI133" s="363"/>
-      <c r="BJ133" s="363"/>
-      <c r="BK133" s="363"/>
+      <c r="BF133" s="331"/>
+      <c r="BG133" s="331"/>
+      <c r="BH133" s="331"/>
+      <c r="BI133" s="331"/>
+      <c r="BJ133" s="331"/>
+      <c r="BK133" s="331"/>
       <c r="BL133" s="12"/>
     </row>
     <row r="134" spans="1:64" ht="21" x14ac:dyDescent="0.35">
@@ -4816,13 +4507,13 @@
       </c>
       <c r="AP134" s="31"/>
       <c r="AR134" s="13"/>
-      <c r="AU134" s="363" t="s">
+      <c r="AU134" s="331" t="s">
         <v>72</v>
       </c>
-      <c r="AV134" s="363" t="s">
+      <c r="AV134" s="331" t="s">
         <v>4</v>
       </c>
-      <c r="AW134" s="363"/>
+      <c r="AW134" s="331"/>
       <c r="AX134" s="4" t="s">
         <v>58</v>
       </c>
@@ -4865,7 +4556,7 @@
       </c>
       <c r="AP135" s="31"/>
       <c r="AR135" s="13"/>
-      <c r="AU135" s="363"/>
+      <c r="AU135" s="331"/>
       <c r="AV135" s="8" t="s">
         <v>5</v>
       </c>
@@ -6883,10 +6574,10 @@
         <v>81</v>
       </c>
       <c r="AU190" s="2"/>
-      <c r="AV190" s="364" t="s">
+      <c r="AV190" s="332" t="s">
         <v>82</v>
       </c>
-      <c r="AW190" s="365"/>
+      <c r="AW190" s="333"/>
       <c r="AX190" s="2" t="s">
         <v>83</v>
       </c>
@@ -7837,6 +7528,69 @@
     </row>
   </sheetData>
   <mergeCells count="79">
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="BE133:BK133"/>
@@ -7853,69 +7607,6 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A39:H39"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -7943,25 +7634,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="348" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="329"/>
+      <c r="C3" s="349"/>
+      <c r="D3" s="349"/>
+      <c r="E3" s="349"/>
+      <c r="F3" s="349"/>
+      <c r="G3" s="349"/>
+      <c r="H3" s="349"/>
+      <c r="I3" s="350"/>
     </row>
     <row r="4" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="336" t="s">
+      <c r="B4" s="357" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="338"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="358"/>
+      <c r="F4" s="359"/>
       <c r="G4" s="48" t="s">
         <v>148</v>
       </c>
@@ -7973,25 +7664,25 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="333" t="s">
+      <c r="B5" s="354" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="335"/>
+      <c r="C5" s="355"/>
+      <c r="D5" s="355"/>
+      <c r="E5" s="355"/>
+      <c r="F5" s="355"/>
+      <c r="G5" s="355"/>
+      <c r="H5" s="355"/>
+      <c r="I5" s="356"/>
     </row>
     <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="349" t="s">
+      <c r="B6" s="366" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="349"/>
-      <c r="D6" s="349"/>
-      <c r="E6" s="349"/>
-      <c r="F6" s="349"/>
+      <c r="C6" s="366"/>
+      <c r="D6" s="366"/>
+      <c r="E6" s="366"/>
+      <c r="F6" s="366"/>
       <c r="G6" s="46">
         <v>120</v>
       </c>
@@ -8007,17 +7698,17 @@
       </c>
       <c r="L6" t="str">
         <f xml:space="preserve"> "  Нельзя эксплуатировать скважину с производительностью, большей чем пасспортная = "&amp;Лист1!$F$7</f>
-        <v xml:space="preserve">  Нельзя эксплуатировать скважину с производительностью, большей чем пасспортная = 145</v>
+        <v xml:space="preserve">  Нельзя эксплуатировать скважину с производительностью, большей чем пасспортная = </v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B7" s="349" t="s">
-        <v>374</v>
-      </c>
-      <c r="C7" s="349"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="349"/>
-      <c r="F7" s="349"/>
+      <c r="B7" s="366" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" s="366"/>
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="366"/>
       <c r="G7" s="46">
         <v>145</v>
       </c>
@@ -8037,13 +7728,13 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="349" t="s">
+      <c r="B8" s="366" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="349"/>
-      <c r="D8" s="349"/>
-      <c r="E8" s="349"/>
-      <c r="F8" s="349"/>
+      <c r="C8" s="366"/>
+      <c r="D8" s="366"/>
+      <c r="E8" s="366"/>
+      <c r="F8" s="366"/>
       <c r="G8" s="46">
         <v>30</v>
       </c>
@@ -8059,17 +7750,17 @@
       </c>
       <c r="L8" t="str">
         <f>" Статический уровень не может быть больше динамического = "&amp;Лист1!F9</f>
-        <v xml:space="preserve"> Статический уровень не может быть больше динамического = 45</v>
+        <v xml:space="preserve"> Статический уровень не может быть больше динамического = </v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="349" t="s">
+      <c r="B9" s="366" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="349"/>
-      <c r="D9" s="349"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="349"/>
+      <c r="C9" s="366"/>
+      <c r="D9" s="366"/>
+      <c r="E9" s="366"/>
+      <c r="F9" s="366"/>
       <c r="G9" s="46">
         <v>45</v>
       </c>
@@ -8085,29 +7776,29 @@
       </c>
       <c r="L9" t="str">
         <f>" Динамический уровень не может быть меньше статического = "&amp;Лист1!F8</f>
-        <v xml:space="preserve"> Динамический уровень не может быть меньше статического = 30</v>
+        <v xml:space="preserve"> Динамический уровень не может быть меньше статического = </v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="330" t="s">
+      <c r="B10" s="351" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="331"/>
-      <c r="D10" s="331"/>
-      <c r="E10" s="331"/>
-      <c r="F10" s="331"/>
-      <c r="G10" s="331"/>
-      <c r="H10" s="331"/>
-      <c r="I10" s="332"/>
+      <c r="C10" s="352"/>
+      <c r="D10" s="352"/>
+      <c r="E10" s="352"/>
+      <c r="F10" s="352"/>
+      <c r="G10" s="352"/>
+      <c r="H10" s="352"/>
+      <c r="I10" s="353"/>
     </row>
     <row r="11" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="342" t="s">
+      <c r="B11" s="347" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="342"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="342"/>
+      <c r="C11" s="347"/>
+      <c r="D11" s="347"/>
+      <c r="E11" s="347"/>
+      <c r="F11" s="347"/>
       <c r="G11" s="45">
         <v>46</v>
       </c>
@@ -8123,17 +7814,17 @@
       </c>
       <c r="L11" t="str">
         <f xml:space="preserve"> "Длина труб должна быть &lt; = " &amp;Лист1!F12 +Лист1!F13&amp;" м"</f>
-        <v>Длина труб должна быть &lt; = 44 м</v>
+        <v>Длина труб должна быть &lt; = 0 м</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="347" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
+      <c r="C12" s="347"/>
+      <c r="D12" s="347"/>
+      <c r="E12" s="347"/>
+      <c r="F12" s="347"/>
       <c r="G12" s="45">
         <v>44</v>
       </c>
@@ -8149,13 +7840,13 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="343" t="s">
+      <c r="B13" s="363" t="s">
         <v>159</v>
       </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="344"/>
-      <c r="E13" s="344"/>
-      <c r="F13" s="345"/>
+      <c r="C13" s="364"/>
+      <c r="D13" s="364"/>
+      <c r="E13" s="364"/>
+      <c r="F13" s="365"/>
       <c r="G13" s="45">
         <v>0</v>
       </c>
@@ -8164,7 +7855,7 @@
       </c>
       <c r="I13" s="45"/>
       <c r="J13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K13" t="s">
         <v>176</v>
@@ -8175,13 +7866,13 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="342" t="s">
+      <c r="B14" s="347" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="342"/>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="342"/>
+      <c r="C14" s="347"/>
+      <c r="D14" s="347"/>
+      <c r="E14" s="347"/>
+      <c r="F14" s="347"/>
       <c r="G14" s="45">
         <v>150</v>
       </c>
@@ -8200,13 +7891,13 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="342" t="s">
+      <c r="B15" s="347" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="342"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
+      <c r="C15" s="347"/>
+      <c r="D15" s="347"/>
+      <c r="E15" s="347"/>
+      <c r="F15" s="347"/>
       <c r="G15" s="45">
         <v>3</v>
       </c>
@@ -8222,13 +7913,13 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="343" t="s">
+      <c r="B16" s="363" t="s">
         <v>163</v>
       </c>
-      <c r="C16" s="344"/>
-      <c r="D16" s="344"/>
-      <c r="E16" s="344"/>
-      <c r="F16" s="345"/>
+      <c r="C16" s="364"/>
+      <c r="D16" s="364"/>
+      <c r="E16" s="364"/>
+      <c r="F16" s="365"/>
       <c r="G16" s="45">
         <v>5</v>
       </c>
@@ -8244,13 +7935,13 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="343" t="s">
+      <c r="B17" s="363" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="345"/>
+      <c r="C17" s="364"/>
+      <c r="D17" s="364"/>
+      <c r="E17" s="364"/>
+      <c r="F17" s="365"/>
       <c r="G17" s="45">
         <v>0.7</v>
       </c>
@@ -8266,25 +7957,25 @@
       </c>
     </row>
     <row r="18" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="339" t="s">
+      <c r="B18" s="360" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="340"/>
-      <c r="D18" s="340"/>
-      <c r="E18" s="340"/>
-      <c r="F18" s="340"/>
-      <c r="G18" s="340"/>
-      <c r="H18" s="340"/>
-      <c r="I18" s="341"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="361"/>
+      <c r="F18" s="361"/>
+      <c r="G18" s="361"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="362"/>
     </row>
     <row r="19" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="358" t="s">
+      <c r="B19" s="335" t="s">
         <v>128</v>
       </c>
-      <c r="C19" s="358"/>
-      <c r="D19" s="358"/>
-      <c r="E19" s="358"/>
-      <c r="F19" s="358"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
       <c r="G19" s="47">
         <v>377</v>
       </c>
@@ -8303,13 +7994,13 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="358" t="s">
+      <c r="B20" s="335" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="358"/>
-      <c r="D20" s="358"/>
-      <c r="E20" s="358"/>
-      <c r="F20" s="358"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="335"/>
+      <c r="E20" s="335"/>
+      <c r="F20" s="335"/>
       <c r="G20" s="47">
         <v>100</v>
       </c>
@@ -8328,13 +8019,13 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="358" t="s">
+      <c r="B21" s="335" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="358"/>
-      <c r="D21" s="358"/>
-      <c r="E21" s="358"/>
-      <c r="F21" s="358"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="335"/>
+      <c r="E21" s="335"/>
+      <c r="F21" s="335"/>
       <c r="G21" s="47">
         <v>0.1</v>
       </c>
@@ -8353,28 +8044,28 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="359" t="s">
+      <c r="B22" s="339" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
-      <c r="F22" s="360"/>
-      <c r="G22" s="360"/>
-      <c r="H22" s="360"/>
-      <c r="I22" s="361"/>
+      <c r="C22" s="340"/>
+      <c r="D22" s="340"/>
+      <c r="E22" s="340"/>
+      <c r="F22" s="340"/>
+      <c r="G22" s="340"/>
+      <c r="H22" s="340"/>
+      <c r="I22" s="341"/>
       <c r="K22" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="23" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="326" t="s">
+      <c r="B23" s="334" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="326"/>
-      <c r="D23" s="326"/>
-      <c r="E23" s="326"/>
-      <c r="F23" s="326"/>
+      <c r="C23" s="334"/>
+      <c r="D23" s="334"/>
+      <c r="E23" s="334"/>
+      <c r="F23" s="334"/>
       <c r="G23" s="49">
         <v>4</v>
       </c>
@@ -8384,13 +8075,13 @@
       <c r="I23" s="49"/>
     </row>
     <row r="24" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="326" t="s">
+      <c r="B24" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="326"/>
-      <c r="D24" s="326"/>
-      <c r="E24" s="326"/>
-      <c r="F24" s="326"/>
+      <c r="C24" s="334"/>
+      <c r="D24" s="334"/>
+      <c r="E24" s="334"/>
+      <c r="F24" s="334"/>
       <c r="G24" s="49">
         <v>0.75</v>
       </c>
@@ -8398,13 +8089,13 @@
       <c r="I24" s="49"/>
     </row>
     <row r="25" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="326" t="s">
+      <c r="B25" s="334" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="326"/>
-      <c r="D25" s="326"/>
-      <c r="E25" s="326"/>
-      <c r="F25" s="326"/>
+      <c r="C25" s="334"/>
+      <c r="D25" s="334"/>
+      <c r="E25" s="334"/>
+      <c r="F25" s="334"/>
       <c r="G25" s="49">
         <v>1.05</v>
       </c>
@@ -8412,13 +8103,13 @@
       <c r="I25" s="49"/>
     </row>
     <row r="26" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="326" t="s">
+      <c r="B26" s="334" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="326"/>
-      <c r="D26" s="326"/>
-      <c r="E26" s="326"/>
-      <c r="F26" s="326"/>
+      <c r="C26" s="334"/>
+      <c r="D26" s="334"/>
+      <c r="E26" s="334"/>
+      <c r="F26" s="334"/>
       <c r="G26" s="49">
         <v>9.81</v>
       </c>
@@ -8428,13 +8119,13 @@
       <c r="I26" s="49"/>
     </row>
     <row r="27" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="326" t="s">
+      <c r="B27" s="334" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="326"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="326"/>
-      <c r="F27" s="326"/>
+      <c r="C27" s="334"/>
+      <c r="D27" s="334"/>
+      <c r="E27" s="334"/>
+      <c r="F27" s="334"/>
       <c r="G27" s="49">
         <v>0</v>
       </c>
@@ -8444,13 +8135,13 @@
       <c r="I27" s="49"/>
     </row>
     <row r="28" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="326" t="s">
+      <c r="B28" s="334" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="326"/>
-      <c r="D28" s="326"/>
-      <c r="E28" s="326"/>
-      <c r="F28" s="326"/>
+      <c r="C28" s="334"/>
+      <c r="D28" s="334"/>
+      <c r="E28" s="334"/>
+      <c r="F28" s="334"/>
       <c r="G28" s="49">
         <v>30</v>
       </c>
@@ -8460,13 +8151,13 @@
       <c r="I28" s="49"/>
     </row>
     <row r="29" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="326" t="s">
+      <c r="B29" s="334" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="326"/>
-      <c r="D29" s="326"/>
-      <c r="E29" s="326"/>
-      <c r="F29" s="326"/>
+      <c r="C29" s="334"/>
+      <c r="D29" s="334"/>
+      <c r="E29" s="334"/>
+      <c r="F29" s="334"/>
       <c r="G29" s="49">
         <v>0.1</v>
       </c>
@@ -8476,13 +8167,13 @@
       <c r="I29" s="49"/>
     </row>
     <row r="30" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="355" t="s">
+      <c r="B30" s="336" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="356"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="357"/>
+      <c r="C30" s="337"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="338"/>
       <c r="G30" s="49">
         <v>1.5E-6</v>
       </c>
@@ -8492,13 +8183,13 @@
       <c r="I30" s="49"/>
     </row>
     <row r="31" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="355" t="s">
+      <c r="B31" s="336" t="s">
         <v>155</v>
       </c>
-      <c r="C31" s="356"/>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="357"/>
+      <c r="C31" s="337"/>
+      <c r="D31" s="337"/>
+      <c r="E31" s="337"/>
+      <c r="F31" s="338"/>
       <c r="G31" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -8508,13 +8199,13 @@
       <c r="I31" s="49"/>
     </row>
     <row r="32" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="355" t="s">
+      <c r="B32" s="336" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="356"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="357"/>
+      <c r="C32" s="337"/>
+      <c r="D32" s="337"/>
+      <c r="E32" s="337"/>
+      <c r="F32" s="338"/>
       <c r="G32" s="49">
         <v>1</v>
       </c>
@@ -8524,13 +8215,13 @@
       <c r="I32" s="49"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="355" t="s">
+      <c r="B33" s="336" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="356"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="357"/>
+      <c r="C33" s="337"/>
+      <c r="D33" s="337"/>
+      <c r="E33" s="337"/>
+      <c r="F33" s="338"/>
       <c r="G33" s="55">
         <f>0.3164/(G34^0.25)</f>
         <v>1.5180281748820629E-2</v>
@@ -8539,13 +8230,13 @@
       <c r="I33" s="49"/>
     </row>
     <row r="34" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="355" t="s">
+      <c r="B34" s="336" t="s">
         <v>152</v>
       </c>
-      <c r="C34" s="356"/>
-      <c r="D34" s="356"/>
-      <c r="E34" s="356"/>
-      <c r="F34" s="357"/>
+      <c r="C34" s="337"/>
+      <c r="D34" s="337"/>
+      <c r="E34" s="337"/>
+      <c r="F34" s="338"/>
       <c r="G34" s="54">
         <f>(G43*G14/1000)/G30</f>
         <v>188723.75560273649</v>
@@ -8554,13 +8245,13 @@
       <c r="I34" s="49"/>
     </row>
     <row r="35" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="326" t="s">
+      <c r="B35" s="334" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="326"/>
-      <c r="D35" s="326"/>
-      <c r="E35" s="326"/>
-      <c r="F35" s="326"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
       <c r="G35" s="56">
         <f>(G33*G11*G43^2)/(G14/1000*2*G26)</f>
         <v>0.84508529084948603</v>
@@ -8571,13 +8262,13 @@
       <c r="I35" s="49"/>
     </row>
     <row r="36" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="326" t="s">
+      <c r="B36" s="334" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="326"/>
-      <c r="D36" s="326"/>
-      <c r="E36" s="326"/>
-      <c r="F36" s="326"/>
+      <c r="C36" s="334"/>
+      <c r="D36" s="334"/>
+      <c r="E36" s="334"/>
+      <c r="F36" s="334"/>
       <c r="G36" s="56">
         <f>(0.05+0.2*(G14/(G14*0.666)))/5</f>
         <v>7.0060060060060061E-2</v>
@@ -8586,13 +8277,13 @@
       <c r="I36" s="49"/>
     </row>
     <row r="37" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="326" t="s">
+      <c r="B37" s="334" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="326"/>
-      <c r="D37" s="326"/>
-      <c r="E37" s="326"/>
-      <c r="F37" s="326"/>
+      <c r="C37" s="334"/>
+      <c r="D37" s="334"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="334"/>
       <c r="G37" s="56">
         <f>((G36*G43^2)/2*G26)*G16</f>
         <v>6.119735643734062</v>
@@ -8603,13 +8294,13 @@
       <c r="I37" s="49"/>
     </row>
     <row r="38" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="326" t="s">
+      <c r="B38" s="334" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="326"/>
-      <c r="D38" s="326"/>
-      <c r="E38" s="326"/>
-      <c r="F38" s="326"/>
+      <c r="C38" s="334"/>
+      <c r="D38" s="334"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="334"/>
       <c r="G38" s="49">
         <v>2</v>
       </c>
@@ -8619,25 +8310,25 @@
       <c r="I38" s="49"/>
     </row>
     <row r="39" spans="2:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B39" s="352" t="s">
+      <c r="B39" s="343" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="353"/>
-      <c r="D39" s="353"/>
-      <c r="E39" s="353"/>
-      <c r="F39" s="353"/>
-      <c r="G39" s="353"/>
-      <c r="H39" s="353"/>
-      <c r="I39" s="354"/>
+      <c r="C39" s="344"/>
+      <c r="D39" s="344"/>
+      <c r="E39" s="344"/>
+      <c r="F39" s="344"/>
+      <c r="G39" s="344"/>
+      <c r="H39" s="344"/>
+      <c r="I39" s="345"/>
     </row>
     <row r="40" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B40" s="351" t="s">
+      <c r="B40" s="342" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="351"/>
-      <c r="D40" s="351"/>
-      <c r="E40" s="351"/>
-      <c r="F40" s="351"/>
+      <c r="C40" s="342"/>
+      <c r="D40" s="342"/>
+      <c r="E40" s="342"/>
+      <c r="F40" s="342"/>
       <c r="G40" s="50">
         <f>((G6/(G9-G8))*(G44-G8))*G24</f>
         <v>72</v>
@@ -8654,13 +8345,13 @@
       </c>
     </row>
     <row r="41" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B41" s="351" t="s">
+      <c r="B41" s="342" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="351"/>
-      <c r="D41" s="351"/>
-      <c r="E41" s="351"/>
-      <c r="F41" s="351"/>
+      <c r="C41" s="342"/>
+      <c r="D41" s="342"/>
+      <c r="E41" s="342"/>
+      <c r="F41" s="342"/>
       <c r="G41" s="51">
         <f>(G11+G37+G15+(G17*10)+G35)*G25</f>
         <v>66.113061981312725</v>
@@ -8677,13 +8368,13 @@
       </c>
     </row>
     <row r="42" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B42" s="351" t="s">
+      <c r="B42" s="342" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="351"/>
-      <c r="D42" s="351"/>
-      <c r="E42" s="351"/>
-      <c r="F42" s="351"/>
+      <c r="C42" s="342"/>
+      <c r="D42" s="342"/>
+      <c r="E42" s="342"/>
+      <c r="F42" s="342"/>
       <c r="G42" s="52">
         <f>G6/(3600*3.14*((((G19-G20)/1000)/2)^2))</f>
         <v>0.55341324675957848</v>
@@ -8700,13 +8391,13 @@
       </c>
     </row>
     <row r="43" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="351" t="s">
+      <c r="B43" s="342" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="351"/>
-      <c r="D43" s="351"/>
-      <c r="E43" s="351"/>
-      <c r="F43" s="351"/>
+      <c r="C43" s="342"/>
+      <c r="D43" s="342"/>
+      <c r="E43" s="342"/>
+      <c r="F43" s="342"/>
       <c r="G43" s="52">
         <f>G6/(3600*3.14*(((G14/1000)/2)^2))</f>
         <v>1.8872375560273649</v>
@@ -8723,13 +8414,13 @@
       </c>
     </row>
     <row r="44" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B44" s="351" t="s">
+      <c r="B44" s="342" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="351"/>
-      <c r="D44" s="351"/>
-      <c r="E44" s="351"/>
-      <c r="F44" s="351"/>
+      <c r="C44" s="342"/>
+      <c r="D44" s="342"/>
+      <c r="E44" s="342"/>
+      <c r="F44" s="342"/>
       <c r="G44" s="52">
         <f>G12-G38+G13</f>
         <v>42</v>
@@ -8746,13 +8437,13 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B45" s="351" t="s">
+      <c r="B45" s="342" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="351"/>
-      <c r="D45" s="351"/>
-      <c r="E45" s="351"/>
-      <c r="F45" s="351"/>
+      <c r="C45" s="342"/>
+      <c r="D45" s="342"/>
+      <c r="E45" s="342"/>
+      <c r="F45" s="342"/>
       <c r="G45" s="52">
         <f>G23</f>
         <v>4</v>
@@ -8770,25 +8461,14 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B10:I10"/>
@@ -8805,14 +8485,25 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8840,67 +8531,67 @@
   <sheetData>
     <row r="3" spans="2:50" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:50" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="374" t="s">
+      <c r="B4" s="375" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="376"/>
+      <c r="D4" s="376"/>
+      <c r="E4" s="376"/>
+      <c r="F4" s="376"/>
+      <c r="G4" s="376"/>
+      <c r="H4" s="376"/>
+      <c r="I4" s="376"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="378" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="379"/>
+      <c r="M4" s="379"/>
+      <c r="N4" s="380"/>
+      <c r="O4" s="381" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="375"/>
-      <c r="D4" s="375"/>
-      <c r="E4" s="375"/>
-      <c r="F4" s="375"/>
-      <c r="G4" s="375"/>
-      <c r="H4" s="375"/>
-      <c r="I4" s="375"/>
-      <c r="J4" s="376"/>
-      <c r="K4" s="377" t="s">
+      <c r="P4" s="382"/>
+      <c r="Q4" s="382"/>
+      <c r="R4" s="382"/>
+      <c r="S4" s="382"/>
+      <c r="T4" s="382"/>
+      <c r="U4" s="382"/>
+      <c r="V4" s="382"/>
+      <c r="W4" s="382"/>
+      <c r="X4" s="382"/>
+      <c r="Y4" s="383"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="384" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="378"/>
-      <c r="M4" s="378"/>
-      <c r="N4" s="379"/>
-      <c r="O4" s="380" t="s">
+      <c r="AB4" s="384"/>
+      <c r="AC4" s="384"/>
+      <c r="AD4" s="384"/>
+      <c r="AE4" s="384"/>
+      <c r="AF4" s="384"/>
+      <c r="AG4" s="384"/>
+      <c r="AH4" s="384"/>
+      <c r="AI4" s="384"/>
+      <c r="AJ4" s="384"/>
+      <c r="AK4" s="384"/>
+      <c r="AL4" s="384"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="385" t="s">
         <v>181</v>
       </c>
-      <c r="P4" s="381"/>
-      <c r="Q4" s="381"/>
-      <c r="R4" s="381"/>
-      <c r="S4" s="381"/>
-      <c r="T4" s="381"/>
-      <c r="U4" s="381"/>
-      <c r="V4" s="381"/>
-      <c r="W4" s="381"/>
-      <c r="X4" s="381"/>
-      <c r="Y4" s="382"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="383" t="s">
+      <c r="AO4" s="385"/>
+      <c r="AP4" s="385"/>
+      <c r="AQ4" s="386"/>
+      <c r="AR4" s="387" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" s="383"/>
-      <c r="AC4" s="383"/>
-      <c r="AD4" s="383"/>
-      <c r="AE4" s="383"/>
-      <c r="AF4" s="383"/>
-      <c r="AG4" s="383"/>
-      <c r="AH4" s="383"/>
-      <c r="AI4" s="383"/>
-      <c r="AJ4" s="383"/>
-      <c r="AK4" s="383"/>
-      <c r="AL4" s="383"/>
-      <c r="AM4" s="58"/>
-      <c r="AN4" s="384" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO4" s="384"/>
-      <c r="AP4" s="384"/>
-      <c r="AQ4" s="385"/>
-      <c r="AR4" s="386" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS4" s="387"/>
-      <c r="AT4" s="387"/>
-      <c r="AU4" s="387"/>
-      <c r="AV4" s="387"/>
-      <c r="AW4" s="387"/>
-      <c r="AX4" s="387"/>
+      <c r="AS4" s="388"/>
+      <c r="AT4" s="388"/>
+      <c r="AU4" s="388"/>
+      <c r="AV4" s="388"/>
+      <c r="AW4" s="388"/>
+      <c r="AX4" s="388"/>
     </row>
     <row r="5" spans="2:50" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="59" t="s">
@@ -8910,68 +8601,68 @@
         <v>79</v>
       </c>
       <c r="D5" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="G5" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="I5" s="64" t="s">
         <v>188</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="J5" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="K5" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="M5" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="67" t="s">
+      <c r="N5" s="69" t="s">
         <v>192</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="O5" s="70" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" s="71" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="Q5" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="O5" s="70" t="s">
-        <v>192</v>
-      </c>
-      <c r="P5" s="71" t="s">
+      <c r="R5" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="Q5" s="71" t="s">
-        <v>196</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>197</v>
-      </c>
-      <c r="S5" s="366" t="s">
+      <c r="S5" s="367" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="367"/>
+      <c r="T5" s="368"/>
       <c r="U5" s="73" t="s">
         <v>86</v>
       </c>
       <c r="V5" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="W5" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="X5" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="Y5" s="75" t="s">
         <v>199</v>
-      </c>
-      <c r="X5" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y5" s="75" t="s">
-        <v>201</v>
       </c>
       <c r="Z5" s="76" t="s">
         <v>79</v>
@@ -8979,47 +8670,47 @@
       <c r="AA5" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="AB5" s="368" t="s">
+      <c r="AB5" s="369" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="369"/>
+      <c r="AC5" s="370"/>
       <c r="AD5" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE5" s="78" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF5" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="AE5" s="78" t="s">
+      <c r="AG5" s="78" t="s">
         <v>203</v>
       </c>
-      <c r="AF5" s="78" t="s">
+      <c r="AH5" s="78" t="s">
         <v>204</v>
-      </c>
-      <c r="AG5" s="78" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH5" s="78" t="s">
-        <v>206</v>
       </c>
       <c r="AI5" s="78" t="s">
         <v>63</v>
       </c>
       <c r="AJ5" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK5" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL5" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="AK5" s="79" t="s">
+      <c r="AM5" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="AL5" s="79" t="s">
+      <c r="AN5" s="371" t="s">
         <v>209</v>
       </c>
-      <c r="AM5" s="80" t="s">
+      <c r="AO5" s="371"/>
+      <c r="AP5" s="372"/>
+      <c r="AQ5" s="81" t="s">
         <v>210</v>
-      </c>
-      <c r="AN5" s="370" t="s">
-        <v>211</v>
-      </c>
-      <c r="AO5" s="370"/>
-      <c r="AP5" s="371"/>
-      <c r="AQ5" s="81" t="s">
-        <v>212</v>
       </c>
       <c r="AR5" s="82" t="s">
         <v>79</v>
@@ -9027,10 +8718,10 @@
       <c r="AS5" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="AT5" s="372" t="s">
+      <c r="AT5" s="373" t="s">
         <v>81</v>
       </c>
-      <c r="AU5" s="373"/>
+      <c r="AU5" s="374"/>
       <c r="AV5" s="84"/>
       <c r="AW5" s="84"/>
       <c r="AX5" s="85" t="s">
@@ -9042,22 +8733,22 @@
         <v>62</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D6" s="61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E6" s="86" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>215</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="60" t="s">
-        <v>217</v>
       </c>
       <c r="I6" s="60" t="s">
         <v>113</v>
@@ -9075,97 +8766,97 @@
         <v>130</v>
       </c>
       <c r="N6" s="92" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O6" s="93" t="s">
         <v>113</v>
       </c>
       <c r="P6" s="73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="R6" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="R6" s="73" t="s">
+      <c r="S6" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="S6" s="94" t="s">
+      <c r="U6" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="T6" s="94" t="s">
+      <c r="V6" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="W6" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="V6" s="95" t="s">
+      <c r="X6" s="96" t="s">
         <v>223</v>
       </c>
-      <c r="W6" s="96" t="s">
+      <c r="Y6" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="X6" s="96" t="s">
+      <c r="Z6" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA6" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="Y6" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z6" s="76" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA6" s="77" t="s">
-        <v>227</v>
-      </c>
       <c r="AB6" s="98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AC6" s="99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AD6" s="78" t="s">
         <v>59</v>
       </c>
       <c r="AE6" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF6" s="78" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG6" s="78" t="s">
         <v>228</v>
       </c>
-      <c r="AF6" s="78" t="s">
+      <c r="AH6" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="AG6" s="78" t="s">
+      <c r="AI6" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="AJ6" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK6" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL6" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="AH6" s="78" t="s">
+      <c r="AM6" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="AI6" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ6" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK6" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="AL6" s="78" t="s">
+      <c r="AN6" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="AM6" s="80" t="s">
+      <c r="AO6" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="AN6" s="100" t="s">
+      <c r="AP6" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="AO6" s="101" t="s">
+      <c r="AQ6" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="AP6" s="102" t="s">
-        <v>236</v>
-      </c>
-      <c r="AQ6" s="102" t="s">
-        <v>237</v>
-      </c>
       <c r="AR6" s="82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AS6" s="83" t="s">
         <v>91</v>
@@ -9179,7 +8870,7 @@
       <c r="AV6" s="104"/>
       <c r="AW6" s="104"/>
       <c r="AX6" s="85" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:50" ht="18.75" x14ac:dyDescent="0.3">
@@ -9205,32 +8896,32 @@
       <c r="U7" s="73"/>
       <c r="V7" s="95"/>
       <c r="W7" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="X7" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y7" s="97" t="s">
         <v>239</v>
-      </c>
-      <c r="X7" s="96" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y7" s="97" t="s">
-        <v>241</v>
       </c>
       <c r="Z7" s="76"/>
       <c r="AA7" s="105" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB7" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC7" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD7" s="78" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE7" s="78" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF7" s="78" t="s">
         <v>242</v>
-      </c>
-      <c r="AB7" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC7" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="AD7" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE7" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF7" s="78" t="s">
-        <v>244</v>
       </c>
       <c r="AG7" s="78"/>
       <c r="AH7" s="78" t="s">
@@ -9247,7 +8938,7 @@
       </c>
       <c r="AL7" s="78"/>
       <c r="AM7" s="80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AN7" s="100"/>
       <c r="AO7" s="102"/>
@@ -9392,10 +9083,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="125" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E9" s="126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F9" s="127">
         <v>41182</v>
@@ -9482,7 +9173,7 @@
         <v>74.8</v>
       </c>
       <c r="AG9" s="143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH9" s="143">
         <v>27</v>
@@ -9515,13 +9206,13 @@
         <v>1</v>
       </c>
       <c r="AS9" s="151" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AT9" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU9" s="152" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AV9" s="153"/>
       <c r="AW9" s="153"/>
@@ -9537,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E10" s="158">
         <v>1411164</v>
@@ -9611,7 +9302,7 @@
         <v>2</v>
       </c>
       <c r="AA10" s="173" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB10" s="173">
         <v>8</v>
@@ -9627,7 +9318,7 @@
         <v>74</v>
       </c>
       <c r="AG10" s="173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH10" s="173">
         <v>27</v>
@@ -9660,13 +9351,13 @@
         <v>2</v>
       </c>
       <c r="AS10" s="182" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AT10" s="183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU10" s="183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AV10" s="184"/>
       <c r="AW10" s="184"/>
@@ -9685,10 +9376,10 @@
         <v>52</v>
       </c>
       <c r="E11" s="187" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F11" s="188" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G11" s="128">
         <v>26</v>
@@ -9756,7 +9447,7 @@
         <v>133</v>
       </c>
       <c r="AA11" s="143" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AB11" s="143">
         <v>9</v>
@@ -9774,7 +9465,7 @@
         <v>44</v>
       </c>
       <c r="AG11" s="143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH11" s="143">
         <v>150</v>
@@ -9807,13 +9498,13 @@
         <v>133</v>
       </c>
       <c r="AS11" s="151" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT11" s="152" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU11" s="152" t="s">
         <v>254</v>
-      </c>
-      <c r="AT11" s="152" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU11" s="152" t="s">
-        <v>256</v>
       </c>
       <c r="AV11" s="153"/>
       <c r="AW11" s="153"/>
@@ -9832,10 +9523,10 @@
         <v>52</v>
       </c>
       <c r="E12" s="196" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F12" s="197" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G12" s="198">
         <v>26</v>
@@ -9903,7 +9594,7 @@
         <v>134</v>
       </c>
       <c r="AA12" s="211" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AB12" s="211">
         <v>5</v>
@@ -9921,7 +9612,7 @@
         <v>38.5</v>
       </c>
       <c r="AG12" s="211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH12" s="211">
         <v>145.80000000000001</v>
@@ -9956,13 +9647,13 @@
         <v>134</v>
       </c>
       <c r="AS12" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT12" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU12" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV12" s="221"/>
       <c r="AW12" s="221"/>
@@ -9978,7 +9669,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="195" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E13" s="223">
         <v>1411253</v>
@@ -10052,7 +9743,7 @@
         <v>135</v>
       </c>
       <c r="AA13" s="211" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AB13" s="211">
         <v>5</v>
@@ -10070,7 +9761,7 @@
         <v>41</v>
       </c>
       <c r="AG13" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH13" s="211" t="s">
         <v>67</v>
@@ -10103,13 +9794,13 @@
         <v>135</v>
       </c>
       <c r="AS13" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT13" s="220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU13" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV13" s="221"/>
       <c r="AW13" s="221"/>
@@ -10125,7 +9816,7 @@
         <v>136</v>
       </c>
       <c r="D14" s="227" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E14" s="228">
         <v>1411282</v>
@@ -10198,7 +9889,7 @@
         <v>136</v>
       </c>
       <c r="AA14" s="173" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AB14" s="173">
         <v>18</v>
@@ -10216,7 +9907,7 @@
         <v>43</v>
       </c>
       <c r="AG14" s="173" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH14" s="173"/>
       <c r="AI14" s="174">
@@ -10251,13 +9942,13 @@
         <v>136</v>
       </c>
       <c r="AS14" s="182" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT14" s="183" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU14" s="183" t="s">
         <v>266</v>
-      </c>
-      <c r="AT14" s="183" t="s">
-        <v>267</v>
-      </c>
-      <c r="AU14" s="183" t="s">
-        <v>268</v>
       </c>
       <c r="AV14" s="184"/>
       <c r="AW14" s="184"/>
@@ -10279,7 +9970,7 @@
         <v>1411226</v>
       </c>
       <c r="F15" s="238" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G15" s="239">
         <v>30</v>
@@ -10347,7 +10038,7 @@
         <v>137</v>
       </c>
       <c r="AA15" s="252" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AB15" s="252">
         <v>5.3</v>
@@ -10365,7 +10056,7 @@
         <v>41</v>
       </c>
       <c r="AG15" s="252" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH15" s="252"/>
       <c r="AI15" s="253">
@@ -10396,13 +10087,13 @@
         <v>137</v>
       </c>
       <c r="AS15" s="259" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT15" s="260" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU15" s="260" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV15" s="221"/>
       <c r="AW15" s="221"/>
@@ -10421,10 +10112,10 @@
         <v>52</v>
       </c>
       <c r="E16" s="196" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F16" s="197" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G16" s="198">
         <v>26</v>
@@ -10492,7 +10183,7 @@
         <v>138</v>
       </c>
       <c r="AA16" s="211" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AB16" s="211">
         <v>7.5</v>
@@ -10510,7 +10201,7 @@
         <v>43</v>
       </c>
       <c r="AG16" s="211" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH16" s="211"/>
       <c r="AI16" s="212">
@@ -10543,13 +10234,13 @@
         <v>138</v>
       </c>
       <c r="AS16" s="219" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT16" s="220" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU16" s="220" t="s">
         <v>254</v>
-      </c>
-      <c r="AT16" s="220" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU16" s="220" t="s">
-        <v>256</v>
       </c>
       <c r="AV16" s="221"/>
       <c r="AW16" s="221"/>
@@ -10565,7 +10256,7 @@
         <v>139</v>
       </c>
       <c r="D17" s="195" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E17" s="266">
         <v>1411287</v>
@@ -10638,7 +10329,7 @@
         <v>139</v>
       </c>
       <c r="AA17" s="211" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AB17" s="211">
         <v>3.21</v>
@@ -10656,7 +10347,7 @@
         <v>37</v>
       </c>
       <c r="AG17" s="211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH17" s="211"/>
       <c r="AI17" s="212">
@@ -10687,13 +10378,13 @@
         <v>139</v>
       </c>
       <c r="AS17" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT17" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU17" s="220" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AV17" s="221"/>
       <c r="AW17" s="221"/>
@@ -10712,10 +10403,10 @@
         <v>52</v>
       </c>
       <c r="E18" s="268" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F18" s="197" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G18" s="198">
         <v>26</v>
@@ -10783,7 +10474,7 @@
         <v>140</v>
       </c>
       <c r="AA18" s="211" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AB18" s="211">
         <v>8</v>
@@ -10801,7 +10492,7 @@
         <v>42</v>
       </c>
       <c r="AG18" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH18" s="211"/>
       <c r="AI18" s="212">
@@ -10834,10 +10525,10 @@
         <v>140</v>
       </c>
       <c r="AS18" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT18" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU18" s="220"/>
       <c r="AV18" s="221"/>
@@ -10945,7 +10636,7 @@
         <v>46</v>
       </c>
       <c r="AG19" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH19" s="211"/>
       <c r="AI19" s="212">
@@ -10978,13 +10669,13 @@
         <v>141</v>
       </c>
       <c r="AS19" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT19" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU19" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AV19" s="221"/>
       <c r="AW19" s="221"/>
@@ -11000,10 +10691,10 @@
         <v>142</v>
       </c>
       <c r="D20" s="195" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E20" s="272" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F20" s="224">
         <v>44104</v>
@@ -11074,7 +10765,7 @@
         <v>142</v>
       </c>
       <c r="AA20" s="211" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB20" s="212">
         <v>7.5</v>
@@ -11092,7 +10783,7 @@
         <v>44</v>
       </c>
       <c r="AG20" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH20" s="211"/>
       <c r="AI20" s="212">
@@ -11123,13 +10814,13 @@
         <v>142</v>
       </c>
       <c r="AS20" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT20" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU20" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV20" s="274"/>
       <c r="AW20" s="274"/>
@@ -11145,10 +10836,10 @@
         <v>143</v>
       </c>
       <c r="D21" s="236" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E21" s="275" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F21" s="276">
         <v>44104</v>
@@ -11219,7 +10910,7 @@
         <v>143</v>
       </c>
       <c r="AA21" s="252" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB21" s="252">
         <v>10</v>
@@ -11237,7 +10928,7 @@
         <v>42</v>
       </c>
       <c r="AG21" s="252" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH21" s="252"/>
       <c r="AI21" s="253">
@@ -11268,13 +10959,13 @@
         <v>143</v>
       </c>
       <c r="AS21" s="259" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT21" s="260" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU21" s="260" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV21" s="84"/>
       <c r="AW21" s="84"/>
@@ -11290,7 +10981,7 @@
         <v>144</v>
       </c>
       <c r="D22" s="195" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E22" s="223">
         <v>1411286</v>
@@ -11381,7 +11072,7 @@
         <v>45.5</v>
       </c>
       <c r="AG22" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH22" s="211"/>
       <c r="AI22" s="212">
@@ -11412,13 +11103,13 @@
         <v>144</v>
       </c>
       <c r="AS22" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT22" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU22" s="220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AV22" s="84"/>
       <c r="AW22" s="84"/>
@@ -11434,10 +11125,10 @@
         <v>145</v>
       </c>
       <c r="D23" s="195" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E23" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F23" s="224">
         <v>40178</v>
@@ -11508,7 +11199,7 @@
         <v>145</v>
       </c>
       <c r="AA23" s="211" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB23" s="211">
         <v>38</v>
@@ -11526,7 +11217,7 @@
         <v>53</v>
       </c>
       <c r="AG23" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH23" s="211"/>
       <c r="AI23" s="212">
@@ -11557,13 +11248,13 @@
         <v>145</v>
       </c>
       <c r="AS23" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT23" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU23" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV23" s="84"/>
       <c r="AW23" s="84"/>
@@ -11582,10 +11273,10 @@
         <v>45</v>
       </c>
       <c r="E24" s="266" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F24" s="197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G24" s="198">
         <v>15</v>
@@ -11653,7 +11344,7 @@
         <v>147</v>
       </c>
       <c r="AA24" s="211" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AB24" s="211">
         <v>20.3</v>
@@ -11669,7 +11360,7 @@
         <v>46</v>
       </c>
       <c r="AG24" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH24" s="211">
         <v>145.80000000000001</v>
@@ -11702,13 +11393,13 @@
         <v>147</v>
       </c>
       <c r="AS24" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT24" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU24" s="220" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AV24" s="84"/>
       <c r="AW24" s="84"/>
@@ -11727,10 +11418,10 @@
         <v>52</v>
       </c>
       <c r="E25" s="196" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F25" s="197" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G25" s="198">
         <v>26</v>
@@ -11816,7 +11507,7 @@
         <v>47</v>
       </c>
       <c r="AG25" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH25" s="211"/>
       <c r="AI25" s="212">
@@ -11847,13 +11538,13 @@
         <v>148</v>
       </c>
       <c r="AS25" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT25" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU25" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AV25" s="84"/>
       <c r="AW25" s="84"/>
@@ -11872,10 +11563,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="280" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F26" s="197" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G26" s="198">
         <v>26</v>
@@ -11943,7 +11634,7 @@
         <v>149</v>
       </c>
       <c r="AA26" s="211" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB26" s="211">
         <v>12</v>
@@ -11961,7 +11652,7 @@
         <v>45</v>
       </c>
       <c r="AG26" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH26" s="211"/>
       <c r="AI26" s="212">
@@ -11992,13 +11683,13 @@
         <v>149</v>
       </c>
       <c r="AS26" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT26" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU26" s="220" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AV26" s="84"/>
       <c r="AW26" s="84"/>
@@ -12017,10 +11708,10 @@
         <v>78</v>
       </c>
       <c r="E27" s="268" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F27" s="197" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G27" s="198">
         <v>26</v>
@@ -12088,7 +11779,7 @@
         <v>150</v>
       </c>
       <c r="AA27" s="211" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AB27" s="211">
         <v>39</v>
@@ -12106,7 +11797,7 @@
         <v>48</v>
       </c>
       <c r="AG27" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH27" s="211"/>
       <c r="AI27" s="212">
@@ -12137,13 +11828,13 @@
         <v>150</v>
       </c>
       <c r="AS27" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT27" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU27" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV27" s="84"/>
       <c r="AW27" s="84"/>
@@ -12159,7 +11850,7 @@
         <v>151</v>
       </c>
       <c r="D28" s="195" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E28" s="268">
         <v>1411288</v>
@@ -12232,7 +11923,7 @@
         <v>151</v>
       </c>
       <c r="AA28" s="211" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AB28" s="211">
         <v>17</v>
@@ -12250,7 +11941,7 @@
         <v>174</v>
       </c>
       <c r="AG28" s="211" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AH28" s="211"/>
       <c r="AI28" s="212">
@@ -12283,13 +11974,13 @@
         <v>151</v>
       </c>
       <c r="AS28" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT28" s="220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU28" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV28" s="84"/>
       <c r="AW28" s="84"/>
@@ -12308,10 +11999,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F29" s="197" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G29" s="198">
         <v>26</v>
@@ -12379,7 +12070,7 @@
         <v>152</v>
       </c>
       <c r="AA29" s="211" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AB29" s="211">
         <v>4</v>
@@ -12397,7 +12088,7 @@
         <v>36.75</v>
       </c>
       <c r="AG29" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH29" s="211">
         <v>210</v>
@@ -12432,13 +12123,13 @@
         <v>152</v>
       </c>
       <c r="AS29" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT29" s="220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU29" s="220" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AV29" s="84"/>
       <c r="AW29" s="84"/>
@@ -12457,10 +12148,10 @@
         <v>45</v>
       </c>
       <c r="E30" s="266" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F30" s="197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G30" s="198">
         <v>15</v>
@@ -12528,7 +12219,7 @@
         <v>153</v>
       </c>
       <c r="AA30" s="211" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AB30" s="211">
         <v>10.5</v>
@@ -12546,7 +12237,7 @@
         <v>42</v>
       </c>
       <c r="AG30" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH30" s="211">
         <v>120</v>
@@ -12579,13 +12270,13 @@
         <v>153</v>
       </c>
       <c r="AS30" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT30" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU30" s="220" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AV30" s="84"/>
       <c r="AW30" s="84"/>
@@ -12601,10 +12292,10 @@
         <v>154</v>
       </c>
       <c r="D31" s="195" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E31" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F31" s="224">
         <v>40178</v>
@@ -12675,7 +12366,7 @@
         <v>154</v>
       </c>
       <c r="AA31" s="211" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AB31" s="211">
         <v>11.2</v>
@@ -12693,7 +12384,7 @@
         <v>43</v>
       </c>
       <c r="AG31" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH31" s="211">
         <v>150</v>
@@ -12726,10 +12417,10 @@
         <v>154</v>
       </c>
       <c r="AS31" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT31" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU31" s="220"/>
       <c r="AV31" s="84"/>
@@ -12749,10 +12440,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="280" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F32" s="197" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G32" s="198">
         <v>26</v>
@@ -12820,7 +12511,7 @@
         <v>155</v>
       </c>
       <c r="AA32" s="211" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AB32" s="211">
         <v>5.0999999999999996</v>
@@ -12838,7 +12529,7 @@
         <v>41.5</v>
       </c>
       <c r="AG32" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH32" s="211">
         <v>145</v>
@@ -12871,13 +12562,13 @@
         <v>155</v>
       </c>
       <c r="AS32" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT32" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU32" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV32" s="84"/>
       <c r="AW32" s="84"/>
@@ -12893,10 +12584,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="195" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E33" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F33" s="224">
         <v>40178</v>
@@ -12967,7 +12658,7 @@
         <v>156</v>
       </c>
       <c r="AA33" s="211" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AB33" s="211">
         <v>12</v>
@@ -12985,7 +12676,7 @@
         <v>46</v>
       </c>
       <c r="AG33" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH33" s="211">
         <v>145</v>
@@ -13018,13 +12709,13 @@
         <v>156</v>
       </c>
       <c r="AS33" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT33" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU33" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV33" s="84"/>
       <c r="AW33" s="84"/>
@@ -13040,13 +12731,13 @@
         <v>157</v>
       </c>
       <c r="D34" s="195" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E34" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F34" s="197" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G34" s="198">
         <v>18.5</v>
@@ -13113,7 +12804,7 @@
         <v>157</v>
       </c>
       <c r="AA34" s="211" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AB34" s="211">
         <v>8.5</v>
@@ -13131,7 +12822,7 @@
         <v>39</v>
       </c>
       <c r="AG34" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH34" s="211">
         <v>145</v>
@@ -13164,13 +12855,13 @@
         <v>157</v>
       </c>
       <c r="AS34" s="219" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT34" s="220" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU34" s="220" t="s">
         <v>254</v>
-      </c>
-      <c r="AT34" s="220" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU34" s="220" t="s">
-        <v>256</v>
       </c>
       <c r="AV34" s="84"/>
       <c r="AW34" s="84"/>
@@ -13189,7 +12880,7 @@
         <v>74</v>
       </c>
       <c r="E35" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F35" s="224">
         <v>40178</v>
@@ -13260,7 +12951,7 @@
         <v>158</v>
       </c>
       <c r="AA35" s="211" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AB35" s="211">
         <v>2.4</v>
@@ -13278,7 +12969,7 @@
         <v>35.1</v>
       </c>
       <c r="AG35" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH35" s="211"/>
       <c r="AI35" s="212">
@@ -13311,13 +13002,13 @@
         <v>158</v>
       </c>
       <c r="AS35" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT35" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU35" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV35" s="84"/>
       <c r="AW35" s="84"/>
@@ -13336,10 +13027,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F36" s="197" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G36" s="198">
         <v>37</v>
@@ -13407,7 +13098,7 @@
         <v>159</v>
       </c>
       <c r="AA36" s="211" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AB36" s="211">
         <v>6.2</v>
@@ -13425,7 +13116,7 @@
         <v>35</v>
       </c>
       <c r="AG36" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH36" s="211">
         <v>145</v>
@@ -13458,13 +13149,13 @@
         <v>159</v>
       </c>
       <c r="AS36" s="219" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AT36" s="220" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AU36" s="220" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AV36" s="84"/>
       <c r="AW36" s="84"/>
@@ -13483,10 +13174,10 @@
         <v>57</v>
       </c>
       <c r="E37" s="266" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F37" s="197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G37" s="198">
         <v>18.5</v>
@@ -13554,7 +13245,7 @@
         <v>160</v>
       </c>
       <c r="AA37" s="211" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AB37" s="211">
         <v>7.5</v>
@@ -13572,7 +13263,7 @@
         <v>46</v>
       </c>
       <c r="AG37" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH37" s="211">
         <v>145</v>
@@ -13605,13 +13296,13 @@
         <v>160</v>
       </c>
       <c r="AS37" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT37" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU37" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV37" s="84"/>
       <c r="AW37" s="84"/>
@@ -13630,10 +13321,10 @@
         <v>57</v>
       </c>
       <c r="E38" s="266" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F38" s="197" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G38" s="198">
         <v>18.5</v>
@@ -13701,7 +13392,7 @@
         <v>161</v>
       </c>
       <c r="AA38" s="211" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AB38" s="211">
         <v>21</v>
@@ -13719,7 +13410,7 @@
         <v>58</v>
       </c>
       <c r="AG38" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH38" s="211"/>
       <c r="AI38" s="212">
@@ -13750,13 +13441,13 @@
         <v>161</v>
       </c>
       <c r="AS38" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT38" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU38" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV38" s="84"/>
       <c r="AW38" s="84"/>
@@ -13772,13 +13463,13 @@
         <v>162</v>
       </c>
       <c r="D39" s="195" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E39" s="266">
         <v>1411222</v>
       </c>
       <c r="F39" s="197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G39" s="198">
         <v>18.5</v>
@@ -13846,7 +13537,7 @@
         <v>162</v>
       </c>
       <c r="AA39" s="211" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AB39" s="211">
         <v>6.5</v>
@@ -13864,7 +13555,7 @@
         <v>56.22</v>
       </c>
       <c r="AG39" s="211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH39" s="211">
         <v>145</v>
@@ -13897,13 +13588,13 @@
         <v>162</v>
       </c>
       <c r="AS39" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT39" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU39" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV39" s="84"/>
       <c r="AW39" s="84"/>
@@ -13922,7 +13613,7 @@
         <v>46</v>
       </c>
       <c r="E40" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F40" s="224">
         <v>41121</v>
@@ -13993,7 +13684,7 @@
         <v>163</v>
       </c>
       <c r="AA40" s="211" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AB40" s="211">
         <v>5.5</v>
@@ -14011,7 +13702,7 @@
         <v>52</v>
       </c>
       <c r="AG40" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH40" s="211"/>
       <c r="AI40" s="212">
@@ -14044,13 +13735,13 @@
         <v>163</v>
       </c>
       <c r="AS40" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT40" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU40" s="220" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AV40" s="84"/>
       <c r="AW40" s="84"/>
@@ -14069,10 +13760,10 @@
         <v>7</v>
       </c>
       <c r="E41" s="280" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F41" s="197" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G41" s="198">
         <v>30</v>
@@ -14140,7 +13831,7 @@
         <v>164</v>
       </c>
       <c r="AA41" s="211" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AB41" s="211">
         <v>4</v>
@@ -14158,7 +13849,7 @@
         <v>48</v>
       </c>
       <c r="AG41" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH41" s="211"/>
       <c r="AI41" s="212">
@@ -14191,13 +13882,13 @@
         <v>164</v>
       </c>
       <c r="AS41" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT41" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU41" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV41" s="84"/>
       <c r="AW41" s="84"/>
@@ -14213,7 +13904,7 @@
         <v>165</v>
       </c>
       <c r="D42" s="195" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E42" s="268">
         <v>1411074</v>
@@ -14287,7 +13978,7 @@
         <v>165</v>
       </c>
       <c r="AA42" s="211" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AB42" s="211">
         <v>25</v>
@@ -14305,7 +13996,7 @@
         <v>47</v>
       </c>
       <c r="AG42" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH42" s="211"/>
       <c r="AI42" s="212">
@@ -14336,13 +14027,13 @@
         <v>165</v>
       </c>
       <c r="AS42" s="219" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT42" s="220" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU42" s="220" t="s">
         <v>254</v>
-      </c>
-      <c r="AT42" s="220" t="s">
-        <v>255</v>
-      </c>
-      <c r="AU42" s="220" t="s">
-        <v>256</v>
       </c>
       <c r="AV42" s="84"/>
       <c r="AW42" s="84"/>
@@ -14361,10 +14052,10 @@
         <v>53</v>
       </c>
       <c r="E43" s="268" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F43" s="197" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G43" s="198">
         <v>26</v>
@@ -14432,7 +14123,7 @@
         <v>166</v>
       </c>
       <c r="AA43" s="211" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AB43" s="211">
         <v>19</v>
@@ -14450,7 +14141,7 @@
         <v>50</v>
       </c>
       <c r="AG43" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH43" s="211"/>
       <c r="AI43" s="212">
@@ -14483,13 +14174,13 @@
         <v>166</v>
       </c>
       <c r="AS43" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT43" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU43" s="220" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AV43" s="84"/>
       <c r="AW43" s="84"/>
@@ -14511,7 +14202,7 @@
         <v>1411115</v>
       </c>
       <c r="F44" s="197" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G44" s="198">
         <v>18.5</v>
@@ -14579,7 +14270,7 @@
         <v>167</v>
       </c>
       <c r="AA44" s="211" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AB44" s="211">
         <v>4</v>
@@ -14597,7 +14288,7 @@
         <v>41.5</v>
       </c>
       <c r="AG44" s="211" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AH44" s="211"/>
       <c r="AI44" s="212">
@@ -14628,13 +14319,13 @@
         <v>167</v>
       </c>
       <c r="AS44" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT44" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU44" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV44" s="84"/>
       <c r="AW44" s="84"/>
@@ -14650,10 +14341,10 @@
         <v>168</v>
       </c>
       <c r="D45" s="195" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E45" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F45" s="224">
         <v>40178</v>
@@ -14724,7 +14415,7 @@
         <v>168</v>
       </c>
       <c r="AA45" s="211" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AB45" s="211">
         <v>5</v>
@@ -14742,7 +14433,7 @@
         <v>42</v>
       </c>
       <c r="AG45" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH45" s="211"/>
       <c r="AI45" s="212">
@@ -14773,10 +14464,10 @@
         <v>168</v>
       </c>
       <c r="AS45" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT45" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU45" s="220"/>
       <c r="AV45" s="84"/>
@@ -14796,10 +14487,10 @@
         <v>48</v>
       </c>
       <c r="E46" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F46" s="270" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G46" s="198">
         <v>18.5</v>
@@ -14867,7 +14558,7 @@
         <v>169</v>
       </c>
       <c r="AA46" s="211" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AB46" s="211">
         <v>3.1</v>
@@ -14885,7 +14576,7 @@
         <v>40</v>
       </c>
       <c r="AG46" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH46" s="211"/>
       <c r="AI46" s="212">
@@ -14916,13 +14607,13 @@
         <v>169</v>
       </c>
       <c r="AS46" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT46" s="220" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AU46" s="220" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AV46" s="84"/>
       <c r="AW46" s="84"/>
@@ -14938,10 +14629,10 @@
         <v>170</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E47" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F47" s="224">
         <v>40178</v>
@@ -15012,7 +14703,7 @@
         <v>170</v>
       </c>
       <c r="AA47" s="211" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AB47" s="211">
         <v>5</v>
@@ -15030,7 +14721,7 @@
         <v>41.2</v>
       </c>
       <c r="AG47" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH47" s="211"/>
       <c r="AI47" s="212">
@@ -15061,13 +14752,13 @@
         <v>170</v>
       </c>
       <c r="AS47" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT47" s="220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AU47" s="220" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AV47" s="84"/>
       <c r="AW47" s="84"/>
@@ -15086,10 +14777,10 @@
         <v>94</v>
       </c>
       <c r="E48" s="223" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F48" s="197" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G48" s="198">
         <v>18.5</v>
@@ -15175,7 +14866,7 @@
         <v>41</v>
       </c>
       <c r="AG48" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH48" s="211">
         <v>146</v>
@@ -15210,13 +14901,13 @@
         <v>171</v>
       </c>
       <c r="AS48" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT48" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AU48" s="220" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AV48" s="84"/>
       <c r="AW48" s="84"/>
@@ -15235,10 +14926,10 @@
         <v>52</v>
       </c>
       <c r="E49" s="196" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F49" s="197" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G49" s="198">
         <v>26</v>
@@ -15306,7 +14997,7 @@
         <v>172</v>
       </c>
       <c r="AA49" s="211" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AB49" s="211">
         <v>8.5</v>
@@ -15324,7 +15015,7 @@
         <v>41</v>
       </c>
       <c r="AG49" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH49" s="211"/>
       <c r="AI49" s="212">
@@ -15355,13 +15046,13 @@
         <v>172</v>
       </c>
       <c r="AS49" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT49" s="220" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU49" s="220" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AV49" s="84"/>
       <c r="AW49" s="84"/>
@@ -15377,10 +15068,10 @@
         <v>173</v>
       </c>
       <c r="D50" s="285" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E50" s="286" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F50" s="287">
         <v>43982</v>
@@ -15451,7 +15142,7 @@
         <v>173</v>
       </c>
       <c r="AA50" s="302" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AB50" s="302">
         <v>8.5</v>
@@ -15469,7 +15160,7 @@
         <v>41</v>
       </c>
       <c r="AG50" s="302" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH50" s="302">
         <v>146</v>
@@ -15504,13 +15195,13 @@
         <v>173</v>
       </c>
       <c r="AS50" s="310" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT50" s="311" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU50" s="311" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AV50" s="84"/>
       <c r="AW50" s="84"/>
@@ -15529,7 +15220,7 @@
         <v>7</v>
       </c>
       <c r="E51" s="126" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F51" s="127">
         <v>41213</v>
@@ -15600,7 +15291,7 @@
         <v>174</v>
       </c>
       <c r="AA51" s="143" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AB51" s="143">
         <v>9</v>
@@ -15618,7 +15309,7 @@
         <v>40.6</v>
       </c>
       <c r="AG51" s="143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH51" s="143" t="s">
         <v>67</v>
@@ -15653,13 +15344,13 @@
         <v>174</v>
       </c>
       <c r="AS51" s="151" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT51" s="152" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AU51" s="152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AV51" s="153"/>
       <c r="AW51" s="153"/>
@@ -15678,10 +15369,10 @@
         <v>7</v>
       </c>
       <c r="E52" s="280" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F52" s="197" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G52" s="198">
         <v>26</v>
@@ -15767,7 +15458,7 @@
         <v>47</v>
       </c>
       <c r="AG52" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH52" s="211">
         <v>146</v>
@@ -15800,13 +15491,13 @@
         <v>175</v>
       </c>
       <c r="AS52" s="219" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AT52" s="220" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AU52" s="220" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AV52" s="221"/>
       <c r="AW52" s="221"/>
@@ -15895,7 +15586,7 @@
         <v>176</v>
       </c>
       <c r="AA53" s="211" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AB53" s="211">
         <v>18</v>
@@ -15913,7 +15604,7 @@
         <v>44</v>
       </c>
       <c r="AG53" s="211" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AH53" s="211"/>
       <c r="AI53" s="212">
@@ -15946,13 +15637,13 @@
         <v>176</v>
       </c>
       <c r="AS53" s="219" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AT53" s="220" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AU53" s="220" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AV53" s="221"/>
       <c r="AW53" s="221"/>
@@ -15968,10 +15659,10 @@
         <v>177</v>
       </c>
       <c r="D54" s="195" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E54" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F54" s="224">
         <v>40178</v>
@@ -16042,7 +15733,7 @@
         <v>177</v>
       </c>
       <c r="AA54" s="211" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AB54" s="211">
         <v>7</v>
@@ -16060,7 +15751,7 @@
         <v>46.4</v>
       </c>
       <c r="AG54" s="211" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AH54" s="211">
         <v>100</v>
@@ -16095,13 +15786,13 @@
         <v>177</v>
       </c>
       <c r="AS54" s="219" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT54" s="220" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU54" s="220" t="s">
         <v>266</v>
-      </c>
-      <c r="AT54" s="220" t="s">
-        <v>321</v>
-      </c>
-      <c r="AU54" s="220" t="s">
-        <v>268</v>
       </c>
       <c r="AV54" s="221"/>
       <c r="AW54" s="221"/>
@@ -16117,13 +15808,13 @@
         <v>178</v>
       </c>
       <c r="D55" s="195" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E55" s="313">
         <v>1411157</v>
       </c>
       <c r="F55" s="197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G55" s="198">
         <v>30</v>
@@ -16191,7 +15882,7 @@
         <v>178</v>
       </c>
       <c r="AA55" s="211" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AB55" s="211">
         <v>8</v>
@@ -16209,7 +15900,7 @@
         <v>46</v>
       </c>
       <c r="AG55" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH55" s="211"/>
       <c r="AI55" s="212">
@@ -16240,13 +15931,13 @@
         <v>178</v>
       </c>
       <c r="AS55" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT55" s="220" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AU55" s="220" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AV55" s="221"/>
       <c r="AW55" s="221"/>
@@ -16265,10 +15956,10 @@
         <v>52</v>
       </c>
       <c r="E56" s="314" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F56" s="315" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G56" s="160">
         <v>26</v>
@@ -16354,7 +16045,7 @@
         <v>48</v>
       </c>
       <c r="AG56" s="173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH56" s="173"/>
       <c r="AI56" s="174">
@@ -16385,13 +16076,13 @@
         <v>179</v>
       </c>
       <c r="AS56" s="182" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AT56" s="183" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AU56" s="183" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AV56" s="184"/>
       <c r="AW56" s="184"/>
@@ -16407,13 +16098,13 @@
         <v>60</v>
       </c>
       <c r="D57" s="186" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E57" s="316" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F57" s="188" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G57" s="128">
         <v>15</v>
@@ -16481,7 +16172,7 @@
         <v>60</v>
       </c>
       <c r="AA57" s="143" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AB57" s="143">
         <v>4.8</v>
@@ -16499,7 +16190,7 @@
         <v>42</v>
       </c>
       <c r="AG57" s="143" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH57" s="143">
         <v>125</v>
@@ -16532,7 +16223,7 @@
         <v>60</v>
       </c>
       <c r="AS57" s="151" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AT57" s="152"/>
       <c r="AU57" s="152"/>
@@ -16553,7 +16244,7 @@
         <v>74</v>
       </c>
       <c r="E58" s="270" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F58" s="224">
         <v>40178</v>
@@ -16624,7 +16315,7 @@
         <v>64</v>
       </c>
       <c r="AA58" s="211" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AB58" s="211">
         <v>4.5</v>
@@ -16642,7 +16333,7 @@
         <v>34.5</v>
       </c>
       <c r="AG58" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH58" s="211">
         <v>125</v>
@@ -16675,7 +16366,7 @@
         <v>64</v>
       </c>
       <c r="AS58" s="219" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AT58" s="220"/>
       <c r="AU58" s="220"/>
@@ -16696,10 +16387,10 @@
         <v>45</v>
       </c>
       <c r="E59" s="266" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F59" s="197" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G59" s="198">
         <v>15</v>
@@ -16767,7 +16458,7 @@
         <v>65</v>
       </c>
       <c r="AA59" s="211" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AB59" s="211">
         <v>4.5999999999999996</v>
@@ -16785,7 +16476,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="AG59" s="211" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH59" s="211">
         <v>150</v>
@@ -16818,13 +16509,13 @@
         <v>65</v>
       </c>
       <c r="AS59" s="219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT59" s="220" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU59" s="220" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AV59" s="221"/>
       <c r="AW59" s="221"/>
@@ -16843,10 +16534,10 @@
         <v>94</v>
       </c>
       <c r="E60" s="321" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F60" s="315" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G60" s="160">
         <v>18.5</v>
@@ -16914,7 +16605,7 @@
         <v>66</v>
       </c>
       <c r="AA60" s="173" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AB60" s="173">
         <v>5</v>
@@ -16932,7 +16623,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="AG60" s="173" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AH60" s="173"/>
       <c r="AI60" s="174">
@@ -16963,13 +16654,13 @@
         <v>66</v>
       </c>
       <c r="AS60" s="182" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AT60" s="183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AU60" s="183" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AV60" s="184"/>
       <c r="AW60" s="184"/>
